--- a/data/hotels_by_city/Houston/Houston_shard_120.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_120.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d258875-Reviews-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +145,849 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r574611496-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>258875</t>
+  </si>
+  <si>
+    <t>574611496</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>McNee Comfort Suites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel just missed 5 dots by a very small margin. It was very clean and comfortable. Great location for MD Anderson and several restaurants. Staff was friendly. Breakfast was a-ok and kept well stocked. The only thing negative I have is the wifi strength. The room I was in was so weak I could not hold a wifi connection. I would definitely stay here again. </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r535997600-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535997600</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Medical Center visit-  great location</t>
+  </si>
+  <si>
+    <t>We had to stay over on a Dr.  visit and booked a room here.   It is right off of Main Street near NRG stadium.   There is a Pappa’s  barbeque adjacent that you can walk to.   Our appointment was in Smith Tower and they had a Main Street parking garage entrance.  It was a 20 minute drive with fairly heavy morning traffic.   The desk clerk was very professional and informative.  The room was clean, good ac unit, and their breakfast although not the best I have had, was adequate.  Good place to stay if you have a medical center visit upcoming.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r534065735-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534065735</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>They charge you the parking for Texans game</t>
+  </si>
+  <si>
+    <t>The rooms are nice.But since i was checking out before the game that was at 12 they told me i had to paid the parking if i was going to leave my car there because i was no longer a customer... and believe me because of that will never be a customer again.Also the breakfast suppose to be up to 9:30 that actually is very early for a Sunday morning. And the lady start picking up everything 9:25 at 9:30 was nothing available. Feels pretty rude to me.Better options around with better policies</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r494057979-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494057979</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Good place</t>
+  </si>
+  <si>
+    <t>Stayed here 4 nights. Comfortable good bed. My wife was here for medical diagnosis. Convienent to hospital &amp; they have a shuttle. Breakfast was adequate. The staff was pleasant. Will stay here in October on return visit</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r488803364-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488803364</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Perfect for what we wanted.</t>
+  </si>
+  <si>
+    <t>I booked this hotel as soon as I bought my U2 tickets, couldn't have been better. 10 minute walk and we were inside and after we were back in our room eating while everyone else was still dealing with there cars. Our go to hotel next time.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r468425715-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468425715</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Great Stay Near NRG Stadium</t>
+  </si>
+  <si>
+    <t>This is our third year to attend the Houston livestock show to watch grandson show. This is our first stay here and it has been great. The view from our room is the NRG stadium and the night lights are awesome.It is within walking distance but we have issues and need to drive. The hotel parking is only for registered guest and they do have security checking at night. this is a plus. everything was nice and clean.Breakfast was just until 9:30 so we missed it each morning.I really wanted to grab toast before we headed out each day but that wasnt possible for us.They leave a newspaper at your door each morning and coffee maker is in room along with refrigerater and microwave.walking distance to several good places to eat. Easy check in and out and we felt safe. Our stay was just all around good. Will stay here from now on if available.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This is our third year to attend the Houston livestock show to watch grandson show. This is our first stay here and it has been great. The view from our room is the NRG stadium and the night lights are awesome.It is within walking distance but we have issues and need to drive. The hotel parking is only for registered guest and they do have security checking at night. this is a plus. everything was nice and clean.Breakfast was just until 9:30 so we missed it each morning.I really wanted to grab toast before we headed out each day but that wasnt possible for us.They leave a newspaper at your door each morning and coffee maker is in room along with refrigerater and microwave.walking distance to several good places to eat. Easy check in and out and we felt safe. Our stay was just all around good. Will stay here from now on if available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r463212981-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463212981</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Good hotel but wifi stinks</t>
+  </si>
+  <si>
+    <t>I arrived on Saturday afternoon and wondered if the place was open. The only car in the parking lot was one for the hotel itself. I asked the front desk lady about it and she said most people stay there for the hospital and aren't around during the day. 
+Check in was quick. The room was nice, clean, and comfortable. Good size TV with all of the DIRECTV channels I'm used to at home. 
+The room had an iron and ironing board which I put to use. 
+I returned late after a basketball game and dinner. There were about 7 cars in the parking lot then. Security was good. They had a security guard in a car in the parking lot. 
+They shutdown the front desk and lock the doors at 11pm. You have to use your room key to get in the back door. I dont know what you would do if you left your key in the room or lost it. I think they should go over that procedure at check in. 
+In the morning they had breakfast until 9:30. Waffle maker (though they were out of batter when I got down there), pastries, yogurt, cereal, ham, cheese omletes, juice and coffee.
+They had USA Today and the Houston chronicle available by the front desk.
+Checkout was quick and easy.
+This would be a great place to stay for a Texans game. It is right across the street...I arrived on Saturday afternoon and wondered if the place was open. The only car in the parking lot was one for the hotel itself. I asked the front desk lady about it and she said most people stay there for the hospital and aren't around during the day. Check in was quick. The room was nice, clean, and comfortable. Good size TV with all of the DIRECTV channels I'm used to at home. The room had an iron and ironing board which I put to use. I returned late after a basketball game and dinner. There were about 7 cars in the parking lot then. Security was good. They had a security guard in a car in the parking lot. They shutdown the front desk and lock the doors at 11pm. You have to use your room key to get in the back door. I dont know what you would do if you left your key in the room or lost it. I think they should go over that procedure at check in. In the morning they had breakfast until 9:30. Waffle maker (though they were out of batter when I got down there), pastries, yogurt, cereal, ham, cheese omletes, juice and coffee.They had USA Today and the Houston chronicle available by the front desk.Checkout was quick and easy.This would be a great place to stay for a Texans game. It is right across the street from one of the stadium parking lots.My big complaint is the wifi. It was unusable. Took 5 mins to load ESPN.com on Saturday and then you couldn't do anything with it. I really needed to do something for work but couldn't. The next morning I was able to connect to work but it kept losing connection..don't stay here if you need good internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I arrived on Saturday afternoon and wondered if the place was open. The only car in the parking lot was one for the hotel itself. I asked the front desk lady about it and she said most people stay there for the hospital and aren't around during the day. 
+Check in was quick. The room was nice, clean, and comfortable. Good size TV with all of the DIRECTV channels I'm used to at home. 
+The room had an iron and ironing board which I put to use. 
+I returned late after a basketball game and dinner. There were about 7 cars in the parking lot then. Security was good. They had a security guard in a car in the parking lot. 
+They shutdown the front desk and lock the doors at 11pm. You have to use your room key to get in the back door. I dont know what you would do if you left your key in the room or lost it. I think they should go over that procedure at check in. 
+In the morning they had breakfast until 9:30. Waffle maker (though they were out of batter when I got down there), pastries, yogurt, cereal, ham, cheese omletes, juice and coffee.
+They had USA Today and the Houston chronicle available by the front desk.
+Checkout was quick and easy.
+This would be a great place to stay for a Texans game. It is right across the street...I arrived on Saturday afternoon and wondered if the place was open. The only car in the parking lot was one for the hotel itself. I asked the front desk lady about it and she said most people stay there for the hospital and aren't around during the day. Check in was quick. The room was nice, clean, and comfortable. Good size TV with all of the DIRECTV channels I'm used to at home. The room had an iron and ironing board which I put to use. I returned late after a basketball game and dinner. There were about 7 cars in the parking lot then. Security was good. They had a security guard in a car in the parking lot. They shutdown the front desk and lock the doors at 11pm. You have to use your room key to get in the back door. I dont know what you would do if you left your key in the room or lost it. I think they should go over that procedure at check in. In the morning they had breakfast until 9:30. Waffle maker (though they were out of batter when I got down there), pastries, yogurt, cereal, ham, cheese omletes, juice and coffee.They had USA Today and the Houston chronicle available by the front desk.Checkout was quick and easy.This would be a great place to stay for a Texans game. It is right across the street from one of the stadium parking lots.My big complaint is the wifi. It was unusable. Took 5 mins to load ESPN.com on Saturday and then you couldn't do anything with it. I really needed to do something for work but couldn't. The next morning I was able to connect to work but it kept losing connection..don't stay here if you need good internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r459503453-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459503453</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Great Customer service, Excellent stay!</t>
+  </si>
+  <si>
+    <t>My wife and I were visiting Houston to see our musician son perform. We were originally unaware that his performance were happening during Super Bowl week. His apartment is across the street from NRG Stadium. We only reserved the 3 nights prior to the weekend due to the high costs of the Super Bowl weekend rates at this hotel which is adjacent to the NRG Stadium parking lot. We assumed we would stay at our sons the next two nights in his small apartment. We checked in on a Tuesday night and had a reasonable rate. The hotel was clean and the room was neat and nicely appointed. It was a nice size with a King Size bed, a desk and chair, a couch, a microwave, safe and refrigerator. On the evening of the third night, I asked the desk clerk if they were booked up for the next night (Friday night of Super Bowl weekend). She said had some rooms. I said we would stay another night if we could get a good rate. She checked and booked us another night for the same rate. I only had to check back in the next morning with the new reservation. So, the next morning I went to the front desk and I told the desk clerk what I was doing. She looked at the rate and said she could do better for us. I took a shot and said how...My wife and I were visiting Houston to see our musician son perform. We were originally unaware that his performance were happening during Super Bowl week. His apartment is across the street from NRG Stadium. We only reserved the 3 nights prior to the weekend due to the high costs of the Super Bowl weekend rates at this hotel which is adjacent to the NRG Stadium parking lot. We assumed we would stay at our sons the next two nights in his small apartment. We checked in on a Tuesday night and had a reasonable rate. The hotel was clean and the room was neat and nicely appointed. It was a nice size with a King Size bed, a desk and chair, a couch, a microwave, safe and refrigerator. On the evening of the third night, I asked the desk clerk if they were booked up for the next night (Friday night of Super Bowl weekend). She said had some rooms. I said we would stay another night if we could get a good rate. She checked and booked us another night for the same rate. I only had to check back in the next morning with the new reservation. So, the next morning I went to the front desk and I told the desk clerk what I was doing. She looked at the rate and said she could do better for us. I took a shot and said how about Saturday night too? She ended up booking us for the next two nights, Friday and Saturday prior to the SB at a better rate than we paid for the first three. We were thrilled with the helpfulness of the staff. We will be back in May and will definitely stay there again. The breakfast was very decent too. They have a waffle machine, eggs and a protein. Cereals, breads juices etc. Very nice and convenient. Oh, and speaking of convenience, they are next door to a fabulous BBQ place called Pappas and across the street are another 4 or 5 restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I were visiting Houston to see our musician son perform. We were originally unaware that his performance were happening during Super Bowl week. His apartment is across the street from NRG Stadium. We only reserved the 3 nights prior to the weekend due to the high costs of the Super Bowl weekend rates at this hotel which is adjacent to the NRG Stadium parking lot. We assumed we would stay at our sons the next two nights in his small apartment. We checked in on a Tuesday night and had a reasonable rate. The hotel was clean and the room was neat and nicely appointed. It was a nice size with a King Size bed, a desk and chair, a couch, a microwave, safe and refrigerator. On the evening of the third night, I asked the desk clerk if they were booked up for the next night (Friday night of Super Bowl weekend). She said had some rooms. I said we would stay another night if we could get a good rate. She checked and booked us another night for the same rate. I only had to check back in the next morning with the new reservation. So, the next morning I went to the front desk and I told the desk clerk what I was doing. She looked at the rate and said she could do better for us. I took a shot and said how...My wife and I were visiting Houston to see our musician son perform. We were originally unaware that his performance were happening during Super Bowl week. His apartment is across the street from NRG Stadium. We only reserved the 3 nights prior to the weekend due to the high costs of the Super Bowl weekend rates at this hotel which is adjacent to the NRG Stadium parking lot. We assumed we would stay at our sons the next two nights in his small apartment. We checked in on a Tuesday night and had a reasonable rate. The hotel was clean and the room was neat and nicely appointed. It was a nice size with a King Size bed, a desk and chair, a couch, a microwave, safe and refrigerator. On the evening of the third night, I asked the desk clerk if they were booked up for the next night (Friday night of Super Bowl weekend). She said had some rooms. I said we would stay another night if we could get a good rate. She checked and booked us another night for the same rate. I only had to check back in the next morning with the new reservation. So, the next morning I went to the front desk and I told the desk clerk what I was doing. She looked at the rate and said she could do better for us. I took a shot and said how about Saturday night too? She ended up booking us for the next two nights, Friday and Saturday prior to the SB at a better rate than we paid for the first three. We were thrilled with the helpfulness of the staff. We will be back in May and will definitely stay there again. The breakfast was very decent too. They have a waffle machine, eggs and a protein. Cereals, breads juices etc. Very nice and convenient. Oh, and speaking of convenience, they are next door to a fabulous BBQ place called Pappas and across the street are another 4 or 5 restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r448394230-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448394230</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Great place and great staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed a week at this hotel and got to know the staff and GM very well, even though the place is great they mentioned something about updating the hotel again. Talk about staying ahead of the competition. Hotel is near restaurants and medical center, I would recommend anyone coming to Houston to stay here.   </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r409997775-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>409997775</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Medical Center visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a great location for access to the Houston Medical Center.  My wife had an early appointment so we chose to drive over and spend the night.   The room was clean,  beds were comfortable and the AC worked well.   If you are in town for medical business,  I recommend this location based on location, cleanliness, nearby restaurants, comfortable bedding and reasonable prices. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r386251403-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386251403</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay in Houston</t>
+  </si>
+  <si>
+    <t>This Comfort Suites was a terrific hotel. The staff was friendly and the room was clean and a good size. There was great food for breakfast and a large variety. It was very convenient for our trip. We went to an Astros game and the drive was about 18 minutes. We went to the Johnson Space Center the next day and that was about 35 minutes away. There are a ton of restaurants near the hotel. The hotel is within walking distance of the NRG stadium so it would be perfect for a Texans game. We would stay here again.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r384396656-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384396656</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>This hotel was much improved on our May 8, 2016</t>
+  </si>
+  <si>
+    <t>On our two trips prior to this one both the breakfast and the internet were below par. I am glad to report that on our most recent trip the internet worked great and the breakfast was much improved. When you go to Texas for cancer treatment, the little things become big things. You can stay here with confidence.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r378239407-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378239407</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Bad dogs with small TV!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>The room was clean, the hotel workers were very good and the breakfast was also good. But the kennel with the dogs was awful. These dogs starting barking at six in the morning. The television in my room was a twenty inch LG. I will never go back there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r356847411-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356847411</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>If you are being treated at any Texas Medical Center facility this is a good place to stay. Very clean, decent breakfast, and shuttle. The only negative is that the shuttle doesn't run in the middle of the day making it inconvenient to return to the hotel following an appointment. We have had to take a taxi a few times. I would say the decor is a bit dated, but it's clean and comfortable if you ave a long stay for treatment at MDA or other medical facility. We have stayed there many times and will continue to do so.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r335811835-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335811835</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Nearest to NRG Stadium!</t>
+  </si>
+  <si>
+    <t>Only .3 (three tenths!) of a mile away from the Kirby St. gate of NRG Stadium.  It can even be considered walking distance, and you avoid the price of parking! How nice it is to be so nearby after attending an exciting event at NRG Stadium.....saving the possibly long drive home, or to the airport, for the next day.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r302862965-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>302862965</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Discriminatory</t>
+  </si>
+  <si>
+    <t>Pathetic and discriminatory. They have a free shuttle service, but it is not accessible to wheelchair users, and they don't care. The front desk did not do anything about the issue. I emailed the corporate customer care email address and they take unreasonable amounts of time to respond to emails and do not remedy the problem. The customer care email is essentially useless. They also sarcastically informed me that because Choice Hotels is a franchise and they do not oversee the day to day operations of each hotel, they are not responsible. I felt like a second class citizen at that hotel and will never stay at another Choice Hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Pathetic and discriminatory. They have a free shuttle service, but it is not accessible to wheelchair users, and they don't care. The front desk did not do anything about the issue. I emailed the corporate customer care email address and they take unreasonable amounts of time to respond to emails and do not remedy the problem. The customer care email is essentially useless. They also sarcastically informed me that because Choice Hotels is a franchise and they do not oversee the day to day operations of each hotel, they are not responsible. I felt like a second class citizen at that hotel and will never stay at another Choice Hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r278887864-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278887864</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Best place to stay for medical center area.</t>
+  </si>
+  <si>
+    <t>We stay here each time my husband has a medical appt in Houston and they do offer medical rates if you ask.  It is near medical center off of Main St.  Very quiet and very clean large rooms.  Several eating places within walking distance.  Offers medical center shuttle also.  The pool is very small, but we don't use that anyways so it wasn't an issue. Best part is the fan on the AC will stay on all night if you are like us and need the white noise to sleep :)</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r277678057-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277678057</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Great place and accommodating staff</t>
+  </si>
+  <si>
+    <t>I have been staying here, off and on, four about 7 years.  The first time was when my father was going thru treatment at MD Anderson.  The staff were great, made accommodations for him and also for his caregivers.   They were also very understanding for those going thru treatments also local hospitals.I have also stayed there during my pre and post surgeries, treatments, checkups and to attend a conference. Again, the staff are work with patients.  I have not been turned always when I needed to stay an extra night or nights due to unexpected surgeries.  They did not mind that I left my car parked there for a week when I had to have an unexpected surgery; that saved me a bunch in parking fees at the hospital and took another worry off my shoulders.The shuttle to and from the hospital is very convenient.   The rooms are comfortable and clean.  Again, the staff have been very helpful, friendly and understanding.  It is close to some good places to eat.  The breakfast is a great way to start the day there. Love the sausage and waffles.Again, the hotels is a great deal, especially for cancer patients.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been staying here, off and on, four about 7 years.  The first time was when my father was going thru treatment at MD Anderson.  The staff were great, made accommodations for him and also for his caregivers.   They were also very understanding for those going thru treatments also local hospitals.I have also stayed there during my pre and post surgeries, treatments, checkups and to attend a conference. Again, the staff are work with patients.  I have not been turned always when I needed to stay an extra night or nights due to unexpected surgeries.  They did not mind that I left my car parked there for a week when I had to have an unexpected surgery; that saved me a bunch in parking fees at the hospital and took another worry off my shoulders.The shuttle to and from the hospital is very convenient.   The rooms are comfortable and clean.  Again, the staff have been very helpful, friendly and understanding.  It is close to some good places to eat.  The breakfast is a great way to start the day there. Love the sausage and waffles.Again, the hotels is a great deal, especially for cancer patients.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r267434456-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267434456</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Great for medical patients!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at this hotel while in Houston for medical care.  This hotel is amazing for this purpose! There is a great shuttle service to medical centers, they provide discounts for medical patients and families, and it was clean and safe!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r257087616-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257087616</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Careful with pricing</t>
+  </si>
+  <si>
+    <t>The hotel was actually a nice Comfort Suite. We were able to walk to Houston BBQ from the hotel. Check in was swift, room was clean, and had free WiFi. The bed was good but the pillows were like square logs!! Had a crick in my neck the next morning. Bring a pillow!!  My husband had made the reservation probably 2 months earlier. Paid over $300 for a Queen room, non smoking , non refundable. We accepted this thinking that was what we got for waiting so late to make a reservation. When we arrived, there were king rooms available for $180!  We asked if we could change, no because already been paid. That  stung. Felt like we had been had. No manager till Tuesday. The lady at the desk did tell us at check out that she mentioned the situation to manager and he was going to  rectify the situation. We will see.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>The hotel was actually a nice Comfort Suite. We were able to walk to Houston BBQ from the hotel. Check in was swift, room was clean, and had free WiFi. The bed was good but the pillows were like square logs!! Had a crick in my neck the next morning. Bring a pillow!!  My husband had made the reservation probably 2 months earlier. Paid over $300 for a Queen room, non smoking , non refundable. We accepted this thinking that was what we got for waiting so late to make a reservation. When we arrived, there were king rooms available for $180!  We asked if we could change, no because already been paid. That  stung. Felt like we had been had. No manager till Tuesday. The lady at the desk did tell us at check out that she mentioned the situation to manager and he was going to  rectify the situation. We will see.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r250670260-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250670260</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>Decent for the price and location</t>
+  </si>
+  <si>
+    <t>We traveled from Louisville, KY to Houston for treatment at MD Anderson. We appreciated the medical discount on our room but it seems most hotels in the area do this. We stayed 2 nights in the jacuzzi room and 7 nights in the king suite. Although the hotel is a bit dated the rooms were clean, the bed was comfortable, internet was sufficient, and the breakfast was decent. We would stay there again.Things I would recommend to improve this hotel and it's ratings:1. The shuttle service is not as convenient as it could be. They offer a shuttle to leave the hotel every hour but not one at 11:30 or after 5:30. They also will not pick you up outside of those times, which is ridiculous. The shuttle does not run at all on the weekends although MD Anderson does have appointments on the weekend. We were forced to pay for a taxi several times after 5:30, on the weekend, and when we didn't want to wait 45 minutes for the next shuttle. Hire a full time driver or 2, extend the shuttle service.2. The breakfast was decent but the 'hot' foods everyday were either sausage patties or weird deli thin ham and eggs. You could make your own waffle but maybe add gravy for the biscuits, potatoes or more variety of meat. Also would recommend expanding the fruit offerings instead of just apples and bananas.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>We traveled from Louisville, KY to Houston for treatment at MD Anderson. We appreciated the medical discount on our room but it seems most hotels in the area do this. We stayed 2 nights in the jacuzzi room and 7 nights in the king suite. Although the hotel is a bit dated the rooms were clean, the bed was comfortable, internet was sufficient, and the breakfast was decent. We would stay there again.Things I would recommend to improve this hotel and it's ratings:1. The shuttle service is not as convenient as it could be. They offer a shuttle to leave the hotel every hour but not one at 11:30 or after 5:30. They also will not pick you up outside of those times, which is ridiculous. The shuttle does not run at all on the weekends although MD Anderson does have appointments on the weekend. We were forced to pay for a taxi several times after 5:30, on the weekend, and when we didn't want to wait 45 minutes for the next shuttle. Hire a full time driver or 2, extend the shuttle service.2. The breakfast was decent but the 'hot' foods everyday were either sausage patties or weird deli thin ham and eggs. You could make your own waffle but maybe add gravy for the biscuits, potatoes or more variety of meat. Also would recommend expanding the fruit offerings instead of just apples and bananas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r233771867-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233771867</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>Nose Peg Required</t>
+  </si>
+  <si>
+    <t>Arrived at hotel after road trip around Texas, staying at some lovely hotels.  This did not join the list of places to revisit.  Receptionist was curt when we arrived, almost rude.  We then walked into room and it smelled strongly - a dank smell, either like being in an old people's home or just damp.  Great location being so close to Reliant Stadium so, in true Brit style, we said nothing but quickly headed out.  After the game we left it as late as possible before we headed back to our room.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r232463275-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232463275</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>Trip to Houston Medical Center</t>
+  </si>
+  <si>
+    <t>Great location and is also within walking distance to Reliant Stadium.   Pappas BarbeQue is located next door.   The staff  was very kind and courteous.  Beds were only average.  Recommend if you need a good place to lay your head when visiting the medical center.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r232260645-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232260645</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>Treatment Stay</t>
+  </si>
+  <si>
+    <t>Nice room, elevator REALLY slow. Next to Reliant stadium, traffic is a nightmare on game days. Pappas BBQ in next parking lot. Has a hot breakfast, its ok, not great. Front desk staff is accomadating.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r217593101-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217593101</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Great Clean Hotel, Friendly staff.</t>
+  </si>
+  <si>
+    <t>We booked this hotel last minute due problems with another hotel. We explained our situation and they were very accommodating. They gave us a room downstairs that had a Jacuzzi tub in the room. The room was large, extremely clean, and airy.  It was right next to the pool but was surprisingly quiet. The outdoor pool is a little on the small side but sufficient for an end of day relaxing dip. The breakfast included cereal, pastries, eggs, ham and waffles, very tasty! We will be sure to stay here again next time we do a blitz of all the downtown Houston area attractions. It is maybe 10 minutes from downtown and 5 minutes to MD Anderson.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>We booked this hotel last minute due problems with another hotel. We explained our situation and they were very accommodating. They gave us a room downstairs that had a Jacuzzi tub in the room. The room was large, extremely clean, and airy.  It was right next to the pool but was surprisingly quiet. The outdoor pool is a little on the small side but sufficient for an end of day relaxing dip. The breakfast included cereal, pastries, eggs, ham and waffles, very tasty! We will be sure to stay here again next time we do a blitz of all the downtown Houston area attractions. It is maybe 10 minutes from downtown and 5 minutes to MD Anderson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r217077809-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217077809</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Pretty hotel, comfy room, reasonable prices.</t>
+  </si>
+  <si>
+    <t>We enjoyed our 3 night stay in this very pretty and comfortable hotel.  The suite was roomy yet cozy.  The hotel lobby had a great stairway and beautiful chandelier.  The breakfast was the only thing that was a little sub-par but it was adequate and enough to help us to start our day.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r216663889-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216663889</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t>We stayed three nights in July while my friend was a patient at MD Anderson.  We chose this property because they offered a medical discounted rate.  We were very pleasantly surprised.  The rooms are large and clean and have a pull out sofa bed.  The complimentary breakfast was very nicely done…items refreshed and stocked.  There was even a small waffle maker in the shape of Texas.  We canceled reservations at the Residence Inn up the road ($189 night) and were very pleased we booked with this property at the discounted rate of $99/night.  The shuttle was great!  You just sign up in the lobby or let the front desk know.  Very close to the stadium and restaurants and just a few minutes from MD Anderson.  The pool is very small but that was not our focus of our trip so it was ok.We would definitely recommend this property for patients visiting the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed three nights in July while my friend was a patient at MD Anderson.  We chose this property because they offered a medical discounted rate.  We were very pleasantly surprised.  The rooms are large and clean and have a pull out sofa bed.  The complimentary breakfast was very nicely done…items refreshed and stocked.  There was even a small waffle maker in the shape of Texas.  We canceled reservations at the Residence Inn up the road ($189 night) and were very pleased we booked with this property at the discounted rate of $99/night.  The shuttle was great!  You just sign up in the lobby or let the front desk know.  Very close to the stadium and restaurants and just a few minutes from MD Anderson.  The pool is very small but that was not our focus of our trip so it was ok.We would definitely recommend this property for patients visiting the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r199569893-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199569893</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>Perfect hotel that is near Reliant Stadium and Restaurants</t>
+  </si>
+  <si>
+    <t>Hotel is walking distance from Reliant Stadium and a lot of diverse Restaurants and a huge Fiesta grocery and liquor store.   The price is very reasonable especially the non-cancellable option price (excellent value).  Breakfast was well stocked and has a wide selection including hot meals, oatmeal, boiled eggs, cereals, hot waffles, yogurt, etc.  The entire hotel was very clean and orderly.  And I don't know if all the guests were considerate but you do not hear noises coming from other rooms (stayed on the 3rd flr).  Exercise room is clean and has multiple equipments but doesn't have a stationary bike. Parking is adequate and guarded by a security guard.  Room has fridge and microwave. Overall, we love this hotel and highly recommended by me.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Hotel is walking distance from Reliant Stadium and a lot of diverse Restaurants and a huge Fiesta grocery and liquor store.   The price is very reasonable especially the non-cancellable option price (excellent value).  Breakfast was well stocked and has a wide selection including hot meals, oatmeal, boiled eggs, cereals, hot waffles, yogurt, etc.  The entire hotel was very clean and orderly.  And I don't know if all the guests were considerate but you do not hear noises coming from other rooms (stayed on the 3rd flr).  Exercise room is clean and has multiple equipments but doesn't have a stationary bike. Parking is adequate and guarded by a security guard.  Room has fridge and microwave. Overall, we love this hotel and highly recommended by me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r190649934-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190649934</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>Noisy but not bad.</t>
+  </si>
+  <si>
+    <t>Stayed overnight for a job interview in the medical district. I was put on the first floor, in a jacuzzi room (did not ask for this). The room was spacious and clean. However, it was extremely noisy since I was near the back door AND the elevator. It was very hard to sleep with people coming in and out. I highly recommend you ask for a second floor room. The jacuzzi looked like it hadn't been cleaned or used in a long time, so I did not attempt to utilize that. The internet worked well and I didn't have any problems. The breakfast was your usual continental breakfast fare, I appreciated that it started at 6. Did not use the shuttle, but it seemed like most of the people staying were patients at the medical center. Overall, not a bad hotel, but nothing fancy.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Stayed overnight for a job interview in the medical district. I was put on the first floor, in a jacuzzi room (did not ask for this). The room was spacious and clean. However, it was extremely noisy since I was near the back door AND the elevator. It was very hard to sleep with people coming in and out. I highly recommend you ask for a second floor room. The jacuzzi looked like it hadn't been cleaned or used in a long time, so I did not attempt to utilize that. The internet worked well and I didn't have any problems. The breakfast was your usual continental breakfast fare, I appreciated that it started at 6. Did not use the shuttle, but it seemed like most of the people staying were patients at the medical center. Overall, not a bad hotel, but nothing fancy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r186934491-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186934491</t>
+  </si>
+  <si>
+    <t>12/06/2013</t>
+  </si>
+  <si>
+    <t>Wiotjhout Doubt the Finest Comfort Inn Yet</t>
+  </si>
+  <si>
+    <t>I arrived to an amazing lobby well decorated.  Season joyful decorations right in the middle of the Medical District. The hallways floors glossy, the paint and decor amazing.  The elevator perfect and speedy.  The room a suite simply amazing: premium bedding, premium paint with red wood finish all over the suite. A beautiful desk with full closet all the amenities one could ask for.   The gentleman at the front desk and dream to deal with and the internet is beyond belief several servers to choose from.  This is a 5 star Choice hotel.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r185868148-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185868148</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>I was robbed!</t>
+  </si>
+  <si>
+    <t>My van was broken into and robbed in the parking lot of this hotel.  The parking lot has a 6' wood fence, topped by barbed wire, with a nightly security guard &amp; surveillance cameras.  My van was targeted, according to the police, and robbed while the security guard was caught on surveillance tapes watching the whole thing.  Neither the manager, Mr. Ashwin Patel, nor his friend the owner of the Security Nationwide, Mr. Sohail Shah, has been responsive to our situation.  Three weeks later we are still out over $15,000, with no response to our communication attempts.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r175413141-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175413141</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Great location for MD Anderson</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and looks to be recently updated. The beds are comfortable. The shuttle service to MDAnderson is great.  The staff seemed very caring as many of their guests are there for medical reasons and are return visitors.  The 4 star rating is due to the fact that after hotels.com promised be a refund of unused days of our stay when I booked I found that the hotel had to O.K. this and they would not.  Don't book through hotels.com as they also denied me the medical rate and they will tell you anything to get you to book through them.  Call the hotel directly.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r170454319-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170454319</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Clean, Quiet, and generally great facility</t>
+  </si>
+  <si>
+    <t>I am a patient of MD Anderson, and have stayed at many of the area hotels.   This facility is above average, and the staff very helpful.   Last month I stayed at a Quality Inn in the area, and there is no comparison in the two facilities in the same hotel group.   I strongly recommend this hotel for a quiet stay with lots of good dining choices in the area.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r163606679-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163606679</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Sufficient in Reliant Park</t>
+  </si>
+  <si>
+    <t>This is an older design Comfort showing some wear from years of service. However, it is convenient to freeways, universities, medical center, and sports venues. The staff does their best to keep large rooms clean and presentable. It has a small exercise center and a tiny pool. An adequate breakfast is served each day. Call the hotel directly for better rate offers than are listed with travel sites. Our only problem was with a rude owner who was bossy with both guests and staff.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r155666596-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155666596</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Pool size of bathtub!</t>
+  </si>
+  <si>
+    <t>This hotel is small &amp; clean. The staff is very nice. 6 tables in breakfast area, but nice breakfast. Pool is disappointing &amp; should be called a bathtub. Walls are thin, can hear people talking down the hall. Suggestions:Paint behind front desk. Redecorate-take out Christmas tree &amp; lights in hall-it is March- really??? Remove dusty fake trees by stairs. Carpet is nice, but wall coverings out dated. Remove stucco wall &amp; border. Cheap looking.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r151624987-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151624987</t>
+  </si>
+  <si>
+    <t>02/07/2013</t>
+  </si>
+  <si>
+    <t>Great location, nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed for a visit to MD Anderson. The rooms were very good and the location is wonderful. If you are going for an event at Reliant stadium, you cannot beat the location -- closer than some of the parking lots. A Target is nearby and lots of restaurants. The bed springs were old and squeaky, but not a bother except when getting in and out of bed.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r135253662-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135253662</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>Good basic stay</t>
+  </si>
+  <si>
+    <t>A small hotel (about 50 rooms) tucked away behind a couple of restaurants. Actually, the entrance of the hotel shares the driveway with a Jack in the Box. It is behind a Pappas BBQ. Very clean but starting to show a little age (matresses could use a changing, AC units are older). It is billed as a place to stay for the Medical Center which is not far and the hotel offers a shuttle, but it’s also a stone’s throw from Reliant Park so it’s a good bet for a game stay. Lots of fast food and some shopping within walking distance (Target across the street) but don't stray too far from the main road as it’s still the inner city. There is a guard on duty at night if that tells you anything. Standard C-Suites breakfast. Good TV line-up. Quiet since its back a bit from the street. The outdoor pool does not seem to get as much attention as the inside as it needed a good cleaning but it also did not get much use while I was there as its right along the drive way.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>A small hotel (about 50 rooms) tucked away behind a couple of restaurants. Actually, the entrance of the hotel shares the driveway with a Jack in the Box. It is behind a Pappas BBQ. Very clean but starting to show a little age (matresses could use a changing, AC units are older). It is billed as a place to stay for the Medical Center which is not far and the hotel offers a shuttle, but it’s also a stone’s throw from Reliant Park so it’s a good bet for a game stay. Lots of fast food and some shopping within walking distance (Target across the street) but don't stray too far from the main road as it’s still the inner city. There is a guard on duty at night if that tells you anything. Standard C-Suites breakfast. Good TV line-up. Quiet since its back a bit from the street. The outdoor pool does not seem to get as much attention as the inside as it needed a good cleaning but it also did not get much use while I was there as its right along the drive way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r123408725-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123408725</t>
+  </si>
+  <si>
+    <t>01/21/2012</t>
+  </si>
+  <si>
+    <t>Good Value for Med Center Visitors</t>
+  </si>
+  <si>
+    <t>This is an excellent value for the price a med Center visit. We are long-term repeat guests (up to a week or two at a time for several months). Rooms are clean, staff is friendly, and they are excellent about providing Med Center shuttle service and accommodating Med Center visitors. Near plenty of restaurants. Refrigerators and microwaves in the rooms so there are a few options for longer-term guests to not have to dine out for every meal. Free fruit at the front desk 24-7. Sleeper sofas in the room are suitable for sitting, but not great for sleeping (not comfortable to sleep on).
+This is not a perfect 5-star hotel, but I got what I would expect and more for the price. Highly recommended for Med Center visitors.
+Pros
+Reliable and reasonably prompt Med Ctr shuttle service
+Sensitive to Med Center visitor needs
+Clean rooms
+Responsive staff
+Small hotel with a friendly atmosphere
+Good location, near Med Center and restaurants
+Fenced parking
+Refrigerators and microwaves in the rooms
+Cons
+Breakfast is ok, but not great
+Pool is small
+Parking is limited, but we have always been able to find a spot
+Walls aren't as thin as in a house, but if you are an exceptionally light sleeper you may have an issue with the noise. Should be ok for normal to heavy sleepers
+Sleeper sofas are not comfortable. Do not count on using them for extra people if you...This is an excellent value for the price a med Center visit. We are long-term repeat guests (up to a week or two at a time for several months). Rooms are clean, staff is friendly, and they are excellent about providing Med Center shuttle service and accommodating Med Center visitors. Near plenty of restaurants. Refrigerators and microwaves in the rooms so there are a few options for longer-term guests to not have to dine out for every meal. Free fruit at the front desk 24-7. Sleeper sofas in the room are suitable for sitting, but not great for sleeping (not comfortable to sleep on).This is not a perfect 5-star hotel, but I got what I would expect and more for the price. Highly recommended for Med Center visitors.ProsReliable and reasonably prompt Med Ctr shuttle serviceSensitive to Med Center visitor needsClean roomsResponsive staffSmall hotel with a friendly atmosphereGood location, near Med Center and restaurantsFenced parkingRefrigerators and microwaves in the roomsConsBreakfast is ok, but not greatPool is smallParking is limited, but we have always been able to find a spotWalls aren't as thin as in a house, but if you are an exceptionally light sleeper you may have an issue with the noise. Should be ok for normal to heavy sleepersSleeper sofas are not comfortable. Do not count on using them for extra people if you want to sleep comfortablyOverall, we have been really happy with this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>This is an excellent value for the price a med Center visit. We are long-term repeat guests (up to a week or two at a time for several months). Rooms are clean, staff is friendly, and they are excellent about providing Med Center shuttle service and accommodating Med Center visitors. Near plenty of restaurants. Refrigerators and microwaves in the rooms so there are a few options for longer-term guests to not have to dine out for every meal. Free fruit at the front desk 24-7. Sleeper sofas in the room are suitable for sitting, but not great for sleeping (not comfortable to sleep on).
+This is not a perfect 5-star hotel, but I got what I would expect and more for the price. Highly recommended for Med Center visitors.
+Pros
+Reliable and reasonably prompt Med Ctr shuttle service
+Sensitive to Med Center visitor needs
+Clean rooms
+Responsive staff
+Small hotel with a friendly atmosphere
+Good location, near Med Center and restaurants
+Fenced parking
+Refrigerators and microwaves in the rooms
+Cons
+Breakfast is ok, but not great
+Pool is small
+Parking is limited, but we have always been able to find a spot
+Walls aren't as thin as in a house, but if you are an exceptionally light sleeper you may have an issue with the noise. Should be ok for normal to heavy sleepers
+Sleeper sofas are not comfortable. Do not count on using them for extra people if you...This is an excellent value for the price a med Center visit. We are long-term repeat guests (up to a week or two at a time for several months). Rooms are clean, staff is friendly, and they are excellent about providing Med Center shuttle service and accommodating Med Center visitors. Near plenty of restaurants. Refrigerators and microwaves in the rooms so there are a few options for longer-term guests to not have to dine out for every meal. Free fruit at the front desk 24-7. Sleeper sofas in the room are suitable for sitting, but not great for sleeping (not comfortable to sleep on).This is not a perfect 5-star hotel, but I got what I would expect and more for the price. Highly recommended for Med Center visitors.ProsReliable and reasonably prompt Med Ctr shuttle serviceSensitive to Med Center visitor needsClean roomsResponsive staffSmall hotel with a friendly atmosphereGood location, near Med Center and restaurantsFenced parkingRefrigerators and microwaves in the roomsConsBreakfast is ok, but not greatPool is smallParking is limited, but we have always been able to find a spotWalls aren't as thin as in a house, but if you are an exceptionally light sleeper you may have an issue with the noise. Should be ok for normal to heavy sleepersSleeper sofas are not comfortable. Do not count on using them for extra people if you want to sleep comfortablyOverall, we have been really happy with this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r34589317-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>34589317</t>
+  </si>
+  <si>
+    <t>07/12/2009</t>
+  </si>
+  <si>
+    <t>Clean, friendly,  but nothing impressive</t>
+  </si>
+  <si>
+    <t>My wife and I spent one night at the Comfort Suites here outside of Houston.  Our room faced Reliant Park home of the Houston Texans.  I used reward points so the room was free.  The front desk was friendly, the room was clean, but other than that, there was nothing to make this hotel stand out.  The pool was SMALL, and the hot tub was SMALLER!  Our room had a king suite with hot tub.      The hotel had a free breakfast which was not worthy of being free.  They would have been better to serve donuts.  There are some shopping centers around, and the hospitals are close by as well.  Pappas BBQ next door was tasty.  The other problem is the website says the hotel is .1 of a mile from the Metro Rail.  You need to take a shuttle to the rail station and the shuttle only runs every couple hours.  Frustrating!      Overall, I was not impressed with this hotel.  I would definately look elsewhere if staying in the greater Houston area!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>My wife and I spent one night at the Comfort Suites here outside of Houston.  Our room faced Reliant Park home of the Houston Texans.  I used reward points so the room was free.  The front desk was friendly, the room was clean, but other than that, there was nothing to make this hotel stand out.  The pool was SMALL, and the hot tub was SMALLER!  Our room had a king suite with hot tub.      The hotel had a free breakfast which was not worthy of being free.  They would have been better to serve donuts.  There are some shopping centers around, and the hospitals are close by as well.  Pappas BBQ next door was tasty.  The other problem is the website says the hotel is .1 of a mile from the Metro Rail.  You need to take a shuttle to the rail station and the shuttle only runs every couple hours.  Frustrating!      Overall, I was not impressed with this hotel.  I would definately look elsewhere if staying in the greater Houston area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r21738444-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21738444</t>
+  </si>
+  <si>
+    <t>11/11/2008</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>I booked three nights at this room in early November.  Like many hotels in the Hoston area, it seemed overpriced (50% more than what I'd pay for comparable accomodations in the outskirts of Chicago).  The hotel is run down, with below average bedding, decor, plumbing, and cleanliness.   The pool is a joke, it's basically a rectangular hot tub in size and right next to the parking lot.  The iron didn't work and they were not able to provide me with a working iron since housekeeping goes home at 8pm.  I was reduced to finding some other way to prepare my clothes for meetings the next day.The breakfast was even poorer than the usual continental, with bagels that seemed like worn out insulation.I checked out that night and went to a more expensive hotel that at least had an iron (and also CNN).  I won't go back to this Comfort Suites, even though I have stayed at many others.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>I booked three nights at this room in early November.  Like many hotels in the Hoston area, it seemed overpriced (50% more than what I'd pay for comparable accomodations in the outskirts of Chicago).  The hotel is run down, with below average bedding, decor, plumbing, and cleanliness.   The pool is a joke, it's basically a rectangular hot tub in size and right next to the parking lot.  The iron didn't work and they were not able to provide me with a working iron since housekeeping goes home at 8pm.  I was reduced to finding some other way to prepare my clothes for meetings the next day.The breakfast was even poorer than the usual continental, with bagels that seemed like worn out insulation.I checked out that night and went to a more expensive hotel that at least had an iron (and also CNN).  I won't go back to this Comfort Suites, even though I have stayed at many others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r10616175-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10616175</t>
+  </si>
+  <si>
+    <t>11/05/2007</t>
+  </si>
+  <si>
+    <t>Great hotel and location</t>
+  </si>
+  <si>
+    <t>We booked this hotel on the weekend of the Houston Quilt Festival when just about every hotel near downtown was completely sold out.  We were a bit nervous because this Comfort Suites had rooms available.  What a pleasant surprise this hotel was!  The location is great for both the medical center, Reliant Center (you could walk) and the George R. Brown Convention Center.  Service was very good, the room was spacious and very clean, bathroom toiletries were replaced daily and the breakfast was much better than the standard continental fare of a cold muffin and coffee.  There are great restaurants within an easy drive; Rice Village is only minutes away.  We would definitely recommend this hotel and we will be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>We booked this hotel on the weekend of the Houston Quilt Festival when just about every hotel near downtown was completely sold out.  We were a bit nervous because this Comfort Suites had rooms available.  What a pleasant surprise this hotel was!  The location is great for both the medical center, Reliant Center (you could walk) and the George R. Brown Convention Center.  Service was very good, the room was spacious and very clean, bathroom toiletries were replaced daily and the breakfast was much better than the standard continental fare of a cold muffin and coffee.  There are great restaurants within an easy drive; Rice Village is only minutes away.  We would definitely recommend this hotel and we will be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r3519114-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3519114</t>
+  </si>
+  <si>
+    <t>05/31/2005</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Just returned from a week at the Comfort Suites in Houston. The hotel is great and so is the service.  It is close to Astroworld, Relaint Stadium, and other Houston attractions.  It was hot in Houston... but the facilites at the Hotel were extermely well kept, and cool.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1381,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1413,2671 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O26" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>200</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>200</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>225</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>232</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33" t="s">
+        <v>242</v>
+      </c>
+      <c r="L33" t="s">
+        <v>243</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>244</v>
+      </c>
+      <c r="O33" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
+        <v>247</v>
+      </c>
+      <c r="K34" t="s">
+        <v>248</v>
+      </c>
+      <c r="L34" t="s">
+        <v>249</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>250</v>
+      </c>
+      <c r="O34" t="s">
+        <v>91</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>252</v>
+      </c>
+      <c r="J35" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" t="s">
+        <v>255</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>256</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37" t="s">
+        <v>265</v>
+      </c>
+      <c r="L37" t="s">
+        <v>266</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>267</v>
+      </c>
+      <c r="O37" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>269</v>
+      </c>
+      <c r="J38" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" t="s">
+        <v>272</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>273</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>276</v>
+      </c>
+      <c r="J39" t="s">
+        <v>277</v>
+      </c>
+      <c r="K39" t="s">
+        <v>278</v>
+      </c>
+      <c r="L39" t="s">
+        <v>279</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>280</v>
+      </c>
+      <c r="O39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>283</v>
+      </c>
+      <c r="J40" t="s">
+        <v>284</v>
+      </c>
+      <c r="K40" t="s">
+        <v>285</v>
+      </c>
+      <c r="L40" t="s">
+        <v>286</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>287</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>290</v>
+      </c>
+      <c r="J41" t="s">
+        <v>291</v>
+      </c>
+      <c r="K41" t="s">
+        <v>292</v>
+      </c>
+      <c r="L41" t="s">
+        <v>293</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>294</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>297</v>
+      </c>
+      <c r="J42" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" t="s">
+        <v>299</v>
+      </c>
+      <c r="L42" t="s">
+        <v>300</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>301</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>304</v>
+      </c>
+      <c r="J43" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" t="s">
+        <v>306</v>
+      </c>
+      <c r="L43" t="s">
+        <v>307</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_120.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_120.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="478">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r599722923-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>258875</t>
+  </si>
+  <si>
+    <t>599722923</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>I need my money</t>
+  </si>
+  <si>
+    <t>The hotel was really nice but they over charged me  because they had a “system Glitch” and the computer hung up when they were processing my card.  It’s been nearly a week now and I still don’t have the refund. Talked to Jen tonight and she admits they made an error but there’s nothing she can really do.  She advises me to wait until Monday. How can they just take my money and act like it’s no big deal. I have never had so much trouble getting money someone willing admits it’s their error. Overcharged and disgusted.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r598813437-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>598813437</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Medical Stay</t>
+  </si>
+  <si>
+    <t>This hotel has fallen short in keeping up with comfort. Checked into room 411. The room was more than warm and stuffy. Air was adjusted, then adjusted again. Finally set to 60 it is still warm in the room and stayed that way all night. Apparently the room has been in the process of a remodel, not a refurbish. Areas have been left unpainted. The tv placement does not allow for watching comfortably from the sofa area. Water spot damage on the ceiling with a hole in the sheet rock. There’s a musty smell in the room and the hallway. The bathroom tub faucet has a leak...drip, drip, drip. With the Texas heat maybe the draperies/curtains should be reconsidered. Something better able to block the heat from the window or an upgrade to the a/c system. Also maybe change the brand of cleaning supplies used. The smell is not one that says things are clean. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This hotel has fallen short in keeping up with comfort. Checked into room 411. The room was more than warm and stuffy. Air was adjusted, then adjusted again. Finally set to 60 it is still warm in the room and stayed that way all night. Apparently the room has been in the process of a remodel, not a refurbish. Areas have been left unpainted. The tv placement does not allow for watching comfortably from the sofa area. Water spot damage on the ceiling with a hole in the sheet rock. There’s a musty smell in the room and the hallway. The bathroom tub faucet has a leak...drip, drip, drip. With the Texas heat maybe the draperies/curtains should be reconsidered. Something better able to block the heat from the window or an upgrade to the a/c system. Also maybe change the brand of cleaning supplies used. The smell is not one that says things are clean. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r574611496-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>258875</t>
-  </si>
-  <si>
     <t>574611496</t>
   </si>
   <si>
@@ -174,9 +216,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r535997600-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -195,9 +234,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r534065735-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -213,6 +249,42 @@
     <t>The rooms are nice.But since i was checking out before the game that was at 12 they told me i had to paid the parking if i was going to leave my car there because i was no longer a customer... and believe me because of that will never be a customer again.Also the breakfast suppose to be up to 9:30 that actually is very early for a Sunday morning. And the lady start picking up everything 9:25 at 9:30 was nothing available. Feels pretty rude to me.Better options around with better policies</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r533490925-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533490925</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>An Unfortunate Series of Events.</t>
+  </si>
+  <si>
+    <t>I stayed two nights.  The first night was paid for with hotel rewards points.  The second night I paid for out of pocket. Suite with every thing in great shape and everything needed right at hand.  Second night - that I paid for - insisted I move next door to different room.  I move all my stuff.  TV does not work.  The desk clerk moved me to a third room.  I move all my stuff.  Air conditioner worked poorly but I was too tired of moving my things to move again so I just toughed it out. For a $20.00 difference shouldn't I have been allowed to stay in the first room?  Good lord.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed two nights.  The first night was paid for with hotel rewards points.  The second night I paid for out of pocket. Suite with every thing in great shape and everything needed right at hand.  Second night - that I paid for - insisted I move next door to different room.  I move all my stuff.  TV does not work.  The desk clerk moved me to a third room.  I move all my stuff.  Air conditioner worked poorly but I was too tired of moving my things to move again so I just toughed it out. For a $20.00 difference shouldn't I have been allowed to stay in the first room?  Good lord.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r497652438-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497652438</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Minutes from MD Anderson - Very Comfortable</t>
+  </si>
+  <si>
+    <t>We stayed here to go to medical appointments at MD Anderson and Memorial Hermann.Its located minutes from both. We have been staying at a Holiday Inn near here, which was pricier. Our friends recommended Comfort Suites so we decided to try it. We were very pleased. Our room was clean and comfortable. Check-in couldn't have been easier. It's a small, older, renovated hotel and is very quiet. The beds have new mattresses and are very comfortable. The wifi was strong and the cable television was clear. It had everything we needed. We're happy we found this spot. It's located very conveniently to many restaurants, too. You won't be disappointed.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r494057979-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -271,6 +343,36 @@
   </si>
   <si>
     <t>This is our third year to attend the Houston livestock show to watch grandson show. This is our first stay here and it has been great. The view from our room is the NRG stadium and the night lights are awesome.It is within walking distance but we have issues and need to drive. The hotel parking is only for registered guest and they do have security checking at night. this is a plus. everything was nice and clean.Breakfast was just until 9:30 so we missed it each morning.I really wanted to grab toast before we headed out each day but that wasnt possible for us.They leave a newspaper at your door each morning and coffee maker is in room along with refrigerater and microwave.walking distance to several good places to eat. Easy check in and out and we felt safe. Our stay was just all around good. Will stay here from now on if available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r468191753-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468191753</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Great for visiting NRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a great little place. It's small but beautiful. The chandelier in the lobby was actually clean and sparkled. Rooms were nice and clean.  Breakfast was good and the area was clean. Easy walk to NRG. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r467704740-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467704740</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Rodeo and BBQ Contest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent service, clean, clean room!!! Surprised goodie bag on each of our beds. The staff members were very friendly and breakfast was great and on point. Definitely will stay here again! Until next year Houston, thanks again! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r463212981-Comfort_Suites-Houston_Texas.html</t>
@@ -349,6 +451,42 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r439754629-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439754629</t>
+  </si>
+  <si>
+    <t>11/24/2016</t>
+  </si>
+  <si>
+    <t>Frustrated!</t>
+  </si>
+  <si>
+    <t>We just got back from Houston where my husband is a patient at MD Anderson. This was our first time to stay at this hotel. The hotel itself is fine, nice rooms, average breakfast and clean. BUT, it is a prime spot for vandalism! Our car along with several others were broken into. Windows busted out and theft. The police officer told us this hotel has been vandalized 6 or 7 times and the manager refuses to hire security. After talking to the Mgr. he said security comes on at 10:00.  Our cars were broken into around 8:30.  We will never stay here again.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r418269870-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418269870</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Let me check in at noon after a long drive and gave me a jaccuzi room!</t>
+  </si>
+  <si>
+    <t>Showed up early after a long drive and was greeted and accommodated despite it being only 11:00 AM. They let me check in and upgraded me to a room with a jaccuzi at no extra charge. This took hours off my drive when I soaked after dinner. All in all a very clean and friendly place to stay.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r409997775-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -403,15 +541,42 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r379678553-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379678553</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Medical Emergency</t>
+  </si>
+  <si>
+    <t>We stayed here because of a family medical emergency.Did not have any options for a room. We had the SMALL queen room--think it may have been laundry area previously. Bed fair. Room quite. Was OK for one night. This hotel is near the stadium. Price was ok .$99 plus tax.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r378463514-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378463514</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Well maintained</t>
+  </si>
+  <si>
+    <t>Very nice, like new lobby and rooms. Lobby and halls have tile floors that look great. Fancy, large chandelier in lobby. Hotel is 13 years old but looked like it was remodeled recently.  Near Rice University.  Had a security guard on duty. Fridge in our room was noisy. Dual phone charger ports by bed and on desk.  Lots of digital TV channels.  Tub was slow to drain and had a few worn spots.   Tiniest pool I've ever seen.  Good basic breakfast.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r378239407-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>378239407</t>
   </si>
   <si>
-    <t>05/31/2016</t>
-  </si>
-  <si>
     <t>Bad dogs with small TV!!!!!!!!!!!</t>
   </si>
   <si>
@@ -454,6 +619,51 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r330056534-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330056534</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>walking distance to NRG Stadium</t>
+  </si>
+  <si>
+    <t>Great location – walking distance to NRG Stadium. Next door to Pappa BBQ (warning- good, but very smoky flavor). Hotel was nicely decorated, gave a warm welcome. Front desk staff was friendly, though distracted. Our room, while quite large (we had an accessible room), had two ACs that did not de-humidify the room. It felt damp/humid the whole stay. Though dated, you could tell it had been properly maintained. Everything was easy to maneuver by wheelchair.I would stay here again.(While we did not need the shuttle, it is good to know that it only runs M-F and only to the Medical Center.)</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r321029866-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321029866</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Great hotel especially for medical visit</t>
+  </si>
+  <si>
+    <t>I was a bit concerned after checking the rating of this hotel, but was so pleasantly surprised when I got there.
+I was basically there for a medical visit and it seemed like so were a lot of other people, but we would totally stay there if we were just visiting Houston.  
+My mom checked in for me since I was still in the hospital and she had no problems at all.  Once I got there, I was still incredibly hurt and not in the best shape but still felt comfortable there.  We stayed in a 2 queen bed suite and the room was plenty big.  It had 2 beds, a sofa sleeper, and a small desk with a big rolling chair.  At one point, there were 4 of us in there and didn't feel cramped or crowded.  The bathroom was also spacious and clean.  My complaint was the toilet was a little low but I couldn't bend well, so that was just a me thing. 
+I was very happy with the location as well.  It isn't next to the medical center but it is probably like a 10 minute drive and there is a shuttle that you can sign up for.  This hotel was close to soooo much.  Restaurants galore and you could walk to a lot of them, a Super Target, Fiesta grocery store, etc.  My mom is older and was very happy with the area since she...I was a bit concerned after checking the rating of this hotel, but was so pleasantly surprised when I got there.I was basically there for a medical visit and it seemed like so were a lot of other people, but we would totally stay there if we were just visiting Houston.  My mom checked in for me since I was still in the hospital and she had no problems at all.  Once I got there, I was still incredibly hurt and not in the best shape but still felt comfortable there.  We stayed in a 2 queen bed suite and the room was plenty big.  It had 2 beds, a sofa sleeper, and a small desk with a big rolling chair.  At one point, there were 4 of us in there and didn't feel cramped or crowded.  The bathroom was also spacious and clean.  My complaint was the toilet was a little low but I couldn't bend well, so that was just a me thing. I was very happy with the location as well.  It isn't next to the medical center but it is probably like a 10 minute drive and there is a shuttle that you can sign up for.  This hotel was close to soooo much.  Restaurants galore and you could walk to a lot of them, a Super Target, Fiesta grocery store, etc.  My mom is older and was very happy with the area since she didn't want to get lost looking for places to eat and buy stuff that we needed.  There is a tiny pool and hot tub.  Yes, it is small but I could go outside and sit by the pool and just relax because it was never really occupied.  I also could walk the halls and sit in the lobby area and nobody bothered me.  They really just let you be which for me was exactly what I needed.  This hotel is also next to the NRG stadium and one night there was a Texans game.  We were concerned about traffic but didn't have any issues and it was not loud.  I thought it would be noisy but nope, not at all.  And that night a lot of people checked in for the game and I thought it might be louder with a different crowd, but nope....no problems.  One thing I read was about the air unit.....it was loud and it was very close to the sofa bed but it didn't really bother us.  I can imagine if it was just the two beds, one might be very close to the unit.  But we like that noise to help us go to sleep.They have a little breakfast area with normal hotel foods.....breads, fruits, cereal, instant oatmeal, yogurts, waffles and some eggs and a hot breakfast meat.  Plenty of choices for a free breakfast!  We were all very happy with this hotel.....everyone was polite, it was clean, quiet, and was exactly what we needed.  I would definitely stay here again, regardless of medical or not.  It isn't close to anything for a vacation but close enough for a quick drive to get where you need!  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I was a bit concerned after checking the rating of this hotel, but was so pleasantly surprised when I got there.
+I was basically there for a medical visit and it seemed like so were a lot of other people, but we would totally stay there if we were just visiting Houston.  
+My mom checked in for me since I was still in the hospital and she had no problems at all.  Once I got there, I was still incredibly hurt and not in the best shape but still felt comfortable there.  We stayed in a 2 queen bed suite and the room was plenty big.  It had 2 beds, a sofa sleeper, and a small desk with a big rolling chair.  At one point, there were 4 of us in there and didn't feel cramped or crowded.  The bathroom was also spacious and clean.  My complaint was the toilet was a little low but I couldn't bend well, so that was just a me thing. 
+I was very happy with the location as well.  It isn't next to the medical center but it is probably like a 10 minute drive and there is a shuttle that you can sign up for.  This hotel was close to soooo much.  Restaurants galore and you could walk to a lot of them, a Super Target, Fiesta grocery store, etc.  My mom is older and was very happy with the area since she...I was a bit concerned after checking the rating of this hotel, but was so pleasantly surprised when I got there.I was basically there for a medical visit and it seemed like so were a lot of other people, but we would totally stay there if we were just visiting Houston.  My mom checked in for me since I was still in the hospital and she had no problems at all.  Once I got there, I was still incredibly hurt and not in the best shape but still felt comfortable there.  We stayed in a 2 queen bed suite and the room was plenty big.  It had 2 beds, a sofa sleeper, and a small desk with a big rolling chair.  At one point, there were 4 of us in there and didn't feel cramped or crowded.  The bathroom was also spacious and clean.  My complaint was the toilet was a little low but I couldn't bend well, so that was just a me thing. I was very happy with the location as well.  It isn't next to the medical center but it is probably like a 10 minute drive and there is a shuttle that you can sign up for.  This hotel was close to soooo much.  Restaurants galore and you could walk to a lot of them, a Super Target, Fiesta grocery store, etc.  My mom is older and was very happy with the area since she didn't want to get lost looking for places to eat and buy stuff that we needed.  There is a tiny pool and hot tub.  Yes, it is small but I could go outside and sit by the pool and just relax because it was never really occupied.  I also could walk the halls and sit in the lobby area and nobody bothered me.  They really just let you be which for me was exactly what I needed.  This hotel is also next to the NRG stadium and one night there was a Texans game.  We were concerned about traffic but didn't have any issues and it was not loud.  I thought it would be noisy but nope, not at all.  And that night a lot of people checked in for the game and I thought it might be louder with a different crowd, but nope....no problems.  One thing I read was about the air unit.....it was loud and it was very close to the sofa bed but it didn't really bother us.  I can imagine if it was just the two beds, one might be very close to the unit.  But we like that noise to help us go to sleep.They have a little breakfast area with normal hotel foods.....breads, fruits, cereal, instant oatmeal, yogurts, waffles and some eggs and a hot breakfast meat.  Plenty of choices for a free breakfast!  We were all very happy with this hotel.....everyone was polite, it was clean, quiet, and was exactly what we needed.  I would definitely stay here again, regardless of medical or not.  It isn't close to anything for a vacation but close enough for a quick drive to get where you need!  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r302862965-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -511,6 +721,39 @@
     <t>I have been staying here, off and on, four about 7 years.  The first time was when my father was going thru treatment at MD Anderson.  The staff were great, made accommodations for him and also for his caregivers.   They were also very understanding for those going thru treatments also local hospitals.I have also stayed there during my pre and post surgeries, treatments, checkups and to attend a conference. Again, the staff are work with patients.  I have not been turned always when I needed to stay an extra night or nights due to unexpected surgeries.  They did not mind that I left my car parked there for a week when I had to have an unexpected surgery; that saved me a bunch in parking fees at the hospital and took another worry off my shoulders.The shuttle to and from the hospital is very convenient.   The rooms are comfortable and clean.  Again, the staff have been very helpful, friendly and understanding.  It is close to some good places to eat.  The breakfast is a great way to start the day there. Love the sausage and waffles.Again, the hotels is a great deal, especially for cancer patients.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r272955337-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272955337</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>The hotel was great, staff was great only bad thing was the breakfast as I am a choice hotel guy and most of the comfort suites have a great breakfast this one kinda lacked.  But Staff and rest of the hotel was great</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r272174253-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272174253</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Highly recommend</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights to visit MDA. The rooms are clean. The bed is comfortable. The internet worked great. The staff was nice. Close to many restaurants. I highly recommend. We stayed at Best Western the last visit and had a total different (bad) experience.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r267434456-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -568,6 +811,48 @@
     <t>We traveled from Louisville, KY to Houston for treatment at MD Anderson. We appreciated the medical discount on our room but it seems most hotels in the area do this. We stayed 2 nights in the jacuzzi room and 7 nights in the king suite. Although the hotel is a bit dated the rooms were clean, the bed was comfortable, internet was sufficient, and the breakfast was decent. We would stay there again.Things I would recommend to improve this hotel and it's ratings:1. The shuttle service is not as convenient as it could be. They offer a shuttle to leave the hotel every hour but not one at 11:30 or after 5:30. They also will not pick you up outside of those times, which is ridiculous. The shuttle does not run at all on the weekends although MD Anderson does have appointments on the weekend. We were forced to pay for a taxi several times after 5:30, on the weekend, and when we didn't want to wait 45 minutes for the next shuttle. Hire a full time driver or 2, extend the shuttle service.2. The breakfast was decent but the 'hot' foods everyday were either sausage patties or weird deli thin ham and eggs. You could make your own waffle but maybe add gravy for the biscuits, potatoes or more variety of meat. Also would recommend expanding the fruit offerings instead of just apples and bananas.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r250399112-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250399112</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Trip to Houston</t>
+  </si>
+  <si>
+    <t>This building is nice but have issues with homeless people i guess and they have put the language carts across the main entry doors in the nights and Night auditor told that it is done as per owner instructions. Good side of it is there is a night watchman. Looks like they had issue with  the printing and notices were stuck all the hallways and elevator that they don't have network connection for 3 days. We had encountered a homeless person walking in hall in the hotel around 10 AM on one of the days and told the house keeper about that and she walked away as if she didn't understand me.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>This building is nice but have issues with homeless people i guess and they have put the language carts across the main entry doors in the nights and Night auditor told that it is done as per owner instructions. Good side of it is there is a night watchman. Looks like they had issue with  the printing and notices were stuck all the hallways and elevator that they don't have network connection for 3 days. We had encountered a homeless person walking in hall in the hotel around 10 AM on one of the days and told the house keeper about that and she walked away as if she didn't understand me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r241476482-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241476482</t>
+  </si>
+  <si>
+    <t>11/25/2014</t>
+  </si>
+  <si>
+    <t>A nice building but not so great in the overall</t>
+  </si>
+  <si>
+    <t>The building and the rooms are decent, particularly for a hotel built several years ago.  There this hotel fails is in the following categories: a) Internet is terrible - constant knock offs and slow as molasses; b) breakfast - we have stayed twice for four days being served the same selection every time, including the absolute worst breakfast ham I have ever tasted - no sausage or grave or real eggs;  c) Coffee - bitter and not hot - very bad coffee by any measure. We stayed here because of its proximity to MD Anderson Cancer Hospital and the shuttle service to and from the facility. The people at the hotel are very nice, the rating tanks because when you are sick you appreciate at lest an average breakfast and decent coffee and, an internet that actually works.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>The building and the rooms are decent, particularly for a hotel built several years ago.  There this hotel fails is in the following categories: a) Internet is terrible - constant knock offs and slow as molasses; b) breakfast - we have stayed twice for four days being served the same selection every time, including the absolute worst breakfast ham I have ever tasted - no sausage or grave or real eggs;  c) Coffee - bitter and not hot - very bad coffee by any measure. We stayed here because of its proximity to MD Anderson Cancer Hospital and the shuttle service to and from the facility. The people at the hotel are very nice, the rating tanks because when you are sick you appreciate at lest an average breakfast and decent coffee and, an internet that actually works.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r233771867-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -619,6 +904,42 @@
     <t>Nice room, elevator REALLY slow. Next to Reliant stadium, traffic is a nightmare on game days. Pappas BBQ in next parking lot. Has a hot breakfast, its ok, not great. Front desk staff is accomadating.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r224938885-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224938885</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel!!!</t>
+  </si>
+  <si>
+    <t>We stayed here last night and the hotel was awesome.  Nicely decorated.  The room was large with great bedding and a choice of pillows.  The room was super clean. Standard complimentary breakfast.  They provided us with a medical rate and free shuttle service to MD Anderson.  My wife has to return in a year and we will stay here again for sure.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r219149500-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219149500</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>very nice stay</t>
+  </si>
+  <si>
+    <t>A very nice,clean and quiet hotel. We stayed 2 nights, the suites had very comfortable beds. Small pool and hot tub outside which we did not have time to use. However the continental breakfast is nice if you need a little something to start your morning with. Close to downtown and the NRG stadium. If I come into town again I would stay here again. Also they give a great medical discount if your in town for an appointment at the clinic</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r217593101-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -634,9 +955,6 @@
     <t>We booked this hotel last minute due problems with another hotel. We explained our situation and they were very accommodating. They gave us a room downstairs that had a Jacuzzi tub in the room. The room was large, extremely clean, and airy.  It was right next to the pool but was surprisingly quiet. The outdoor pool is a little on the small side but sufficient for an end of day relaxing dip. The breakfast included cereal, pastries, eggs, ham and waffles, very tasty! We will be sure to stay here again next time we do a blitz of all the downtown Houston area attractions. It is maybe 10 minutes from downtown and 5 minutes to MD Anderson.MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>We booked this hotel last minute due problems with another hotel. We explained our situation and they were very accommodating. They gave us a room downstairs that had a Jacuzzi tub in the room. The room was large, extremely clean, and airy.  It was right next to the pool but was surprisingly quiet. The outdoor pool is a little on the small side but sufficient for an end of day relaxing dip. The breakfast included cereal, pastries, eggs, ham and waffles, very tasty! We will be sure to stay here again next time we do a blitz of all the downtown Houston area attractions. It is maybe 10 minutes from downtown and 5 minutes to MD Anderson.More</t>
   </si>
   <si>
@@ -673,6 +991,39 @@
     <t>We stayed three nights in July while my friend was a patient at MD Anderson.  We chose this property because they offered a medical discounted rate.  We were very pleasantly surprised.  The rooms are large and clean and have a pull out sofa bed.  The complimentary breakfast was very nicely done…items refreshed and stocked.  There was even a small waffle maker in the shape of Texas.  We canceled reservations at the Residence Inn up the road ($189 night) and were very pleased we booked with this property at the discounted rate of $99/night.  The shuttle was great!  You just sign up in the lobby or let the front desk know.  Very close to the stadium and restaurants and just a few minutes from MD Anderson.  The pool is very small but that was not our focus of our trip so it was ok.We would definitely recommend this property for patients visiting the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r214976741-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214976741</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Offers a medical rate!</t>
+  </si>
+  <si>
+    <t>Booked on the internet, senior rate. When checking in asked about medical rate. Offered one and a great savings at $89. Hotel very comfortable; clean; quite. Also, very close to Reliant Center. In a neighborhood, security guard on premises.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r213556580-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213556580</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>We will stay here again!</t>
+  </si>
+  <si>
+    <t>We stayed there July 1, 2014 for one night so that we wouldn't have to fight Houston going to work traffic the morning of my husband's doctors' appt.  It was a clean and comfortable hotel.  It offered a free shuttle service to the Medical Center nearby.  This saved us a big parking fee at MD Anderson Hospital.  It is easy to find and exactly what we were looking for.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r199569893-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -733,6 +1084,42 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r186757867-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186757867</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Unsecure Hotel.... Be Careful!</t>
+  </si>
+  <si>
+    <t>We stayed there for the Texans vs Patriots game. This hotel is the closest to the Reliant Stadium entrance so is very convenient to get there, no more than a 5 minute walk. The rooms are big and clean, and the beds are ok to rest just fine. Breakfast is average but certainly good enough for a hotel of this category.Unfortunately two of our Suburban windows were broken into and we were robbed. The car was parked inside the hotel parking lot that is monitored with cameras, but the security guy works only from 10 PM to 6 AM. Police did not do anything for us other than write a report. The hotel did not refund any money for the inconvenience.I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed there for the Texans vs Patriots game. This hotel is the closest to the Reliant Stadium entrance so is very convenient to get there, no more than a 5 minute walk. The rooms are big and clean, and the beds are ok to rest just fine. Breakfast is average but certainly good enough for a hotel of this category.Unfortunately two of our Suburban windows were broken into and we were robbed. The car was parked inside the hotel parking lot that is monitored with cameras, but the security guy works only from 10 PM to 6 AM. Police did not do anything for us other than write a report. The hotel did not refund any money for the inconvenience.I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r186231360-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186231360</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>nice stay</t>
+  </si>
+  <si>
+    <t>Spent one night here as the kids apartment had no room for us. Room clean, bed very comfortable. Staff friendly and helpful. Very close to Reliant stadium and hospital district. Typical morning breakfast offerings which was more than enough.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r185868148-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -787,6 +1174,39 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r168169673-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168169673</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>Good value for the money</t>
+  </si>
+  <si>
+    <t>Just returned from a two night stay as my wife had a medical appointment at MD Anderson. This hotel is very clean and the room was very comfortable. The breakfast was very good compared to some others in the area. The  parking is a little akward but everything else about it was very good. It is very close to Reliant stadium so anyone going to an event there could walk to the stadium. I will stay there again if we have to return for another medical appointment.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r163836042-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163836042</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>Central, Clean, and friendly</t>
+  </si>
+  <si>
+    <t>While this isn't the most elegant hotel in town, they do a great job with what they have. This comfort suites hasn't been renovated in a while and the rooms are starting to show how well they have been used but they are clean.The location is great near Reliant Stadium, medical center, and easy access to 288/610/kirby and other major roadways.Breakfast was the standard fare at comfort suites thought he area is a little small. Staff is very friendly and accommodating and does their best to make you feel at home.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r163606679-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -802,9 +1222,6 @@
     <t>This is an older design Comfort showing some wear from years of service. However, it is convenient to freeways, universities, medical center, and sports venues. The staff does their best to keep large rooms clean and presentable. It has a small exercise center and a tiny pool. An adequate breakfast is served each day. Call the hotel directly for better rate offers than are listed with travel sites. Our only problem was with a rude owner who was bossy with both guests and staff.</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r155666596-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -836,6 +1253,54 @@
   </si>
   <si>
     <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r146875369-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146875369</t>
+  </si>
+  <si>
+    <t>12/06/2012</t>
+  </si>
+  <si>
+    <t>Good value for patient of M.D. Anderson</t>
+  </si>
+  <si>
+    <t>My wife is a patient of M.D. Anderson.  We chose this hotel because of location and price.  When I made the reservation I spoke directly with the hotel manager.  When he found out my wife was a patient of M. D. Anderson he offered a special rate.  The special rate reduced the cost $20 a night.  Accepting this discount required we give up points.The breakfast was better than some hotels that offer a continental breakfast and not as good as others.The room was very clean.The hotel offers free shuttle service to the medical complex.  There vehicle is a Toyota Van so they can only haul 6 passengers at a time.  They are willing to make as many trips as necessary to transport those signed up.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>My wife is a patient of M.D. Anderson.  We chose this hotel because of location and price.  When I made the reservation I spoke directly with the hotel manager.  When he found out my wife was a patient of M. D. Anderson he offered a special rate.  The special rate reduced the cost $20 a night.  Accepting this discount required we give up points.The breakfast was better than some hotels that offer a continental breakfast and not as good as others.The room was very clean.The hotel offers free shuttle service to the medical complex.  There vehicle is a Toyota Van so they can only haul 6 passengers at a time.  They are willing to make as many trips as necessary to transport those signed up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r138702277-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138702277</t>
+  </si>
+  <si>
+    <t>08/28/2012</t>
+  </si>
+  <si>
+    <t>Locked in every night with a side of non-responsive and vindictive management</t>
+  </si>
+  <si>
+    <t>Apparently a guest is not allowed to question or voice an opinion about how management lock guests into the hotel at night, and the punishment is a false claim of "smoking in the room" to the tune of $162.30.
+I will start off with saying I am a 10 year veteran of the hotel industry, I have worked at a number of brands including Comfort Suites. Not only am I a non-smoker, I find tobacco smoke irritating and the stale smoke smell sickening. This is why I choose Comfort Suites, a 100% smoke free chain.
+This hotel shuts down its doors and then barricades them with luggage carts between the hours of 11pm-6am. There is no accessible route to the handicapped parking in the front where my car was. I voiced this concern on my first night to the night clerk, who was not pleased for the unfortunate interruption of his YouTubeing on his laptop. Finding the same thing the second night, I not only shared my concern but my contempt for not only preventing direct access to the handicapped spaces but also barricading an emergency exit route. The night clerk could not care any less. I conveyed my sentiments to the manager the next day and all I received was that it was for the "safety" of the guests. I advised I would just send photos to their corporate offices. 
+I checked out the following morning on 6/29 at...Apparently a guest is not allowed to question or voice an opinion about how management lock guests into the hotel at night, and the punishment is a false claim of "smoking in the room" to the tune of $162.30.I will start off with saying I am a 10 year veteran of the hotel industry, I have worked at a number of brands including Comfort Suites. Not only am I a non-smoker, I find tobacco smoke irritating and the stale smoke smell sickening. This is why I choose Comfort Suites, a 100% smoke free chain.This hotel shuts down its doors and then barricades them with luggage carts between the hours of 11pm-6am. There is no accessible route to the handicapped parking in the front where my car was. I voiced this concern on my first night to the night clerk, who was not pleased for the unfortunate interruption of his YouTubeing on his laptop. Finding the same thing the second night, I not only shared my concern but my contempt for not only preventing direct access to the handicapped spaces but also barricading an emergency exit route. The night clerk could not care any less. I conveyed my sentiments to the manager the next day and all I received was that it was for the "safety" of the guests. I advised I would just send photos to their corporate offices. I checked out the following morning on 6/29 at about 5:30am with the night clerk and turned in my keys.Subsequently I find a charge for 162.30, and I wonder if they forgot to check me out or if they charged the wrong card as I had split the stay between 2 different accounts... I contact the hotel and I am given the runaround, told I would need to speak with Mr. Patel for information. I ask can't they just email or fax me the bill, and they said no, Mr. Patel would need to take care of that. After getting this runaround for a number of days, I contact my credit card company, not to dispute the charges but simply to request a copy of the receipts.  Just before the deadline a copy showing a "smoking charge" was submitted to my credit card company. Once again, I am not only a non-smoker but can not stand smoke. The most interesting part is that I turned in my keys around 5:30am, but my room was not checked-out until 3pm... Nearly 10 hours later, it makes me wonder if the night clerk resold my room under the table for cash... By 9:00am I was already back in Austin... This is the only way I can fathom a legitimate albeit misplaced blame for smoking in the room. The alternative is that it is a vindictive retaliation for advising I would report their barricading the door to their corporate office.Since the hotel has not responded to me and they took so long to forward a copy to the credit card company, I have no recourse to request the key logs or video recordings to support the possibility that their clerk gave access to my room to someone else after my departure.I contact Choice Hotels, advise them of the entire situation, their response was that only the hotel can address the situation and they would forward it along. A few days pass, no call, no email from the hotel, I contact Choice Hotels again and I am told that the hotel "sent a letter" and to wait 10 days for it. I expressed my deep displeasure at the fact that I took the time to call and speak with someone, the hotel can have the decency to call me back but no they "sent a letter". I advise them to contact the hotel, advise them how upset I am that they didn't make an attempt at an active response. The representative for Choice Hotels advises that they will request a copy of the letter as well for their records and again to please allow 10 days.The 10 days are now up and no letter here, I contacted Choice Hotels Customer Relations, the hotel has "unfortunately" not responded to them and has not provided a copy of this supposed letter. I have requested the issue be reviewed by an area manager but unfortunately Choice Hotels doesn't give a crap if the hotel fails to respond it's only a "ding" and if they lie about responding there is nothing they can do about it. If this is not resolved, the next step is to push this up to the executive offices with letters to both the Choice Hotels CEO Steve Joyce and the 10 other members of the board of directors.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Apparently a guest is not allowed to question or voice an opinion about how management lock guests into the hotel at night, and the punishment is a false claim of "smoking in the room" to the tune of $162.30.
+I will start off with saying I am a 10 year veteran of the hotel industry, I have worked at a number of brands including Comfort Suites. Not only am I a non-smoker, I find tobacco smoke irritating and the stale smoke smell sickening. This is why I choose Comfort Suites, a 100% smoke free chain.
+This hotel shuts down its doors and then barricades them with luggage carts between the hours of 11pm-6am. There is no accessible route to the handicapped parking in the front where my car was. I voiced this concern on my first night to the night clerk, who was not pleased for the unfortunate interruption of his YouTubeing on his laptop. Finding the same thing the second night, I not only shared my concern but my contempt for not only preventing direct access to the handicapped spaces but also barricading an emergency exit route. The night clerk could not care any less. I conveyed my sentiments to the manager the next day and all I received was that it was for the "safety" of the guests. I advised I would just send photos to their corporate offices. 
+I checked out the following morning on 6/29 at...Apparently a guest is not allowed to question or voice an opinion about how management lock guests into the hotel at night, and the punishment is a false claim of "smoking in the room" to the tune of $162.30.I will start off with saying I am a 10 year veteran of the hotel industry, I have worked at a number of brands including Comfort Suites. Not only am I a non-smoker, I find tobacco smoke irritating and the stale smoke smell sickening. This is why I choose Comfort Suites, a 100% smoke free chain.This hotel shuts down its doors and then barricades them with luggage carts between the hours of 11pm-6am. There is no accessible route to the handicapped parking in the front where my car was. I voiced this concern on my first night to the night clerk, who was not pleased for the unfortunate interruption of his YouTubeing on his laptop. Finding the same thing the second night, I not only shared my concern but my contempt for not only preventing direct access to the handicapped spaces but also barricading an emergency exit route. The night clerk could not care any less. I conveyed my sentiments to the manager the next day and all I received was that it was for the "safety" of the guests. I advised I would just send photos to their corporate offices. I checked out the following morning on 6/29 at about 5:30am with the night clerk and turned in my keys.Subsequently I find a charge for 162.30, and I wonder if they forgot to check me out or if they charged the wrong card as I had split the stay between 2 different accounts... I contact the hotel and I am given the runaround, told I would need to speak with Mr. Patel for information. I ask can't they just email or fax me the bill, and they said no, Mr. Patel would need to take care of that. After getting this runaround for a number of days, I contact my credit card company, not to dispute the charges but simply to request a copy of the receipts.  Just before the deadline a copy showing a "smoking charge" was submitted to my credit card company. Once again, I am not only a non-smoker but can not stand smoke. The most interesting part is that I turned in my keys around 5:30am, but my room was not checked-out until 3pm... Nearly 10 hours later, it makes me wonder if the night clerk resold my room under the table for cash... By 9:00am I was already back in Austin... This is the only way I can fathom a legitimate albeit misplaced blame for smoking in the room. The alternative is that it is a vindictive retaliation for advising I would report their barricading the door to their corporate office.Since the hotel has not responded to me and they took so long to forward a copy to the credit card company, I have no recourse to request the key logs or video recordings to support the possibility that their clerk gave access to my room to someone else after my departure.I contact Choice Hotels, advise them of the entire situation, their response was that only the hotel can address the situation and they would forward it along. A few days pass, no call, no email from the hotel, I contact Choice Hotels again and I am told that the hotel "sent a letter" and to wait 10 days for it. I expressed my deep displeasure at the fact that I took the time to call and speak with someone, the hotel can have the decency to call me back but no they "sent a letter". I advise them to contact the hotel, advise them how upset I am that they didn't make an attempt at an active response. The representative for Choice Hotels advises that they will request a copy of the letter as well for their records and again to please allow 10 days.The 10 days are now up and no letter here, I contacted Choice Hotels Customer Relations, the hotel has "unfortunately" not responded to them and has not provided a copy of this supposed letter. I have requested the issue be reviewed by an area manager but unfortunately Choice Hotels doesn't give a crap if the hotel fails to respond it's only a "ding" and if they lie about responding there is nothing they can do about it. If this is not resolved, the next step is to push this up to the executive offices with letters to both the Choice Hotels CEO Steve Joyce and the 10 other members of the board of directors.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r135253662-Comfort_Suites-Houston_Texas.html</t>
@@ -933,6 +1398,48 @@
     <t>My wife and I spent one night at the Comfort Suites here outside of Houston.  Our room faced Reliant Park home of the Houston Texans.  I used reward points so the room was free.  The front desk was friendly, the room was clean, but other than that, there was nothing to make this hotel stand out.  The pool was SMALL, and the hot tub was SMALLER!  Our room had a king suite with hot tub.      The hotel had a free breakfast which was not worthy of being free.  They would have been better to serve donuts.  There are some shopping centers around, and the hospitals are close by as well.  Pappas BBQ next door was tasty.  The other problem is the website says the hotel is .1 of a mile from the Metro Rail.  You need to take a shuttle to the rail station and the shuttle only runs every couple hours.  Frustrating!      Overall, I was not impressed with this hotel.  I would definately look elsewhere if staying in the greater Houston area!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r22500690-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22500690</t>
+  </si>
+  <si>
+    <t>12/06/2008</t>
+  </si>
+  <si>
+    <t>Overpriced</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel after the Houston Texans Monday night football game.  Overall, the hotel is typical for a comfort suites location.  The location to Reliant Stadium was great as it was within short walking distance.  The rooms were clean and well kept and overall the hotel seemed in good condition.The continental breakfast was okay but nothing too exciting.  It consisted of sausage patties, an assortment of pastries, eggs, juices, coffee, yogurt and 'do-it-yourself' waffles.  It was enough to fill my belly and tide me over until lunch.Two big downfalls of this hotel are the pool and the price.  The pool is a very small, laughable, pool located in the parking lot of the hotel.  It has an attached hottub which looks to seat about 4 people.  The price, I paid $160 plus tax for 2 queen beds, is WAY too much for what you get.  I'm not sure if it's because this hotel is located right next to Reliant Stadium or if it's because it's located in the medical district of Houston, but they are making a killing by overcharging on their rooms.  I've stayed at way better hotels in downtown metropolitan cities for much less.On the flip side, I couldn't find any better hotels for less money in the same area...MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel after the Houston Texans Monday night football game.  Overall, the hotel is typical for a comfort suites location.  The location to Reliant Stadium was great as it was within short walking distance.  The rooms were clean and well kept and overall the hotel seemed in good condition.The continental breakfast was okay but nothing too exciting.  It consisted of sausage patties, an assortment of pastries, eggs, juices, coffee, yogurt and 'do-it-yourself' waffles.  It was enough to fill my belly and tide me over until lunch.Two big downfalls of this hotel are the pool and the price.  The pool is a very small, laughable, pool located in the parking lot of the hotel.  It has an attached hottub which looks to seat about 4 people.  The price, I paid $160 plus tax for 2 queen beds, is WAY too much for what you get.  I'm not sure if it's because this hotel is located right next to Reliant Stadium or if it's because it's located in the medical district of Houston, but they are making a killing by overcharging on their rooms.  I've stayed at way better hotels in downtown metropolitan cities for much less.On the flip side, I couldn't find any better hotels for less money in the same area...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r22030802-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22030802</t>
+  </si>
+  <si>
+    <t>11/20/2008</t>
+  </si>
+  <si>
+    <t>Good choice for business traveler</t>
+  </si>
+  <si>
+    <t>We had a business trip in Houston near Reliant Park and wanted a hotel close enough to walk.  This Comfort Suites had everything we needed - a reasonable price, sitting area in the room with free wireless, refrigerator, microwave, makeup mirror, free breakfast and friendly staff.  The furnishings are basic and the walls are thin but we will stay here again next year.</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r21738444-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -948,9 +1455,6 @@
     <t>I booked three nights at this room in early November.  Like many hotels in the Hoston area, it seemed overpriced (50% more than what I'd pay for comparable accomodations in the outskirts of Chicago).  The hotel is run down, with below average bedding, decor, plumbing, and cleanliness.   The pool is a joke, it's basically a rectangular hot tub in size and right next to the parking lot.  The iron didn't work and they were not able to provide me with a working iron since housekeeping goes home at 8pm.  I was reduced to finding some other way to prepare my clothes for meetings the next day.The breakfast was even poorer than the usual continental, with bagels that seemed like worn out insulation.I checked out that night and went to a more expensive hotel that at least had an iron (and also CNN).  I won't go back to this Comfort Suites, even though I have stayed at many others.MoreShow less</t>
   </si>
   <si>
-    <t>November 2008</t>
-  </si>
-  <si>
     <t>I booked three nights at this room in early November.  Like many hotels in the Hoston area, it seemed overpriced (50% more than what I'd pay for comparable accomodations in the outskirts of Chicago).  The hotel is run down, with below average bedding, decor, plumbing, and cleanliness.   The pool is a joke, it's basically a rectangular hot tub in size and right next to the parking lot.  The iron didn't work and they were not able to provide me with a working iron since housekeeping goes home at 8pm.  I was reduced to finding some other way to prepare my clothes for meetings the next day.The breakfast was even poorer than the usual continental, with bagels that seemed like worn out insulation.I checked out that night and went to a more expensive hotel that at least had an iron (and also CNN).  I won't go back to this Comfort Suites, even though I have stayed at many others.More</t>
   </si>
   <si>
@@ -988,6 +1492,24 @@
   </si>
   <si>
     <t>Just returned from a week at the Comfort Suites in Houston. The hotel is great and so is the service.  It is close to Astroworld, Relaint Stadium, and other Houston attractions.  It was hot in Houston... but the facilites at the Hotel were extermely well kept, and cool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d258875-r1229549-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>1229549</t>
+  </si>
+  <si>
+    <t>08/15/2003</t>
+  </si>
+  <si>
+    <t>Didn't get what we paid for</t>
+  </si>
+  <si>
+    <t>We stayed here in July for just a one night trip to Astroworld. The hotel for the most part was clean, but we reserved this hotel because the room had a sofa sleeper. After returning from the park (11:00 p.m.) we noticed there were no linens for the sleeper bed. We went to the front desk to request linens and were told they didn't have any. They only had 18 extra and they were all gone. The toilet didn't flush (had to wait between 20-30 min between flushes) and the bathroom door didn't close. They say they have breakfast from 8-10, but when we went down at 9 they had cereal with no milk and 1 breakfast roll left. When I checked out I informed the front desk clerk of the problems, but she didn't make any notes so that the problems could be resolved, she just gave us the bill. When I contacted the management via e-mail - I was mailed a response that was not signed or any of the issues addressed, just saying sorry and we hope you will stay with us again. They didn't even offer us a discount on a future stay. As for the hotel pool - It's not much larger than an oversized bathtub. Hope you have better luck than we did. And if you don't - I hope the hotel offers a little more sympathy.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here in July for just a one night trip to Astroworld. The hotel for the most part was clean, but we reserved this hotel because the room had a sofa sleeper. After returning from the park (11:00 p.m.) we noticed there were no linens for the sleeper bed. We went to the front desk to request linens and were told they didn't have any. They only had 18 extra and they were all gone. The toilet didn't flush (had to wait between 20-30 min between flushes) and the bathroom door didn't close. They say they have breakfast from 8-10, but when we went down at 9 they had cereal with no milk and 1 breakfast roll left. When I checked out I informed the front desk clerk of the problems, but she didn't make any notes so that the problems could be resolved, she just gave us the bill. When I contacted the management via e-mail - I was mailed a response that was not signed or any of the issues addressed, just saying sorry and we hope you will stay with us again. They didn't even offer us a discount on a future stay. As for the hotel pool - It's not much larger than an oversized bathtub. Hope you have better luck than we did. And if you don't - I hope the hotel offers a little more sympathy.More</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +2044,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1579,13 +2101,13 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1599,7 +2121,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1636,24 +2158,20 @@
         <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1676,7 +2194,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1685,25 +2203,25 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1717,7 +2235,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1733,48 +2251,52 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>71</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1811,25 +2333,23 @@
         <v>81</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1837,7 +2357,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -1853,34 +2373,34 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
         <v>85</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>86</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>87</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>88</v>
       </c>
-      <c r="L8" t="s">
-        <v>89</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>90</v>
-      </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1894,7 +2414,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -1910,54 +2430,48 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
         <v>93</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>94</v>
       </c>
-      <c r="J9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" t="s">
-        <v>96</v>
-      </c>
-      <c r="L9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>90</v>
-      </c>
       <c r="O9" t="s">
-        <v>83</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -1973,34 +2487,34 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>100</v>
       </c>
-      <c r="J10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2014,7 +2528,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -2030,48 +2544,54 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
         <v>105</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>106</v>
       </c>
-      <c r="J11" t="s">
+      <c r="O11" t="s">
         <v>107</v>
       </c>
-      <c r="K11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -2087,52 +2607,48 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
         <v>111</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>112</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>113</v>
       </c>
-      <c r="K12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L12" t="s">
-        <v>115</v>
-      </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -2148,52 +2664,48 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
         <v>117</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>118</v>
       </c>
-      <c r="J13" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" t="s">
-        <v>121</v>
-      </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -2209,54 +2721,48 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
         <v>123</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>124</v>
       </c>
-      <c r="J14" t="s">
+      <c r="O14" t="s">
         <v>125</v>
       </c>
-      <c r="K14" t="s">
-        <v>126</v>
-      </c>
-      <c r="L14" t="s">
-        <v>127</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" t="s">
-        <v>83</v>
-      </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -2272,43 +2778,43 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
         <v>128</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>129</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>130</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>131</v>
       </c>
-      <c r="L15" t="s">
-        <v>132</v>
-      </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
       </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2335,52 +2841,48 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
         <v>134</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>135</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>136</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>137</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>138</v>
       </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>139</v>
-      </c>
       <c r="O16" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -2396,48 +2898,54 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
         <v>140</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>141</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>142</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>143</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>144</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>145</v>
       </c>
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" t="s"/>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
@@ -2453,41 +2961,41 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
         <v>147</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>148</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>149</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>150</v>
-      </c>
-      <c r="L18" t="s">
-        <v>151</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>152</v>
       </c>
       <c r="O18" t="s">
         <v>52</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2498,7 +3006,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19">
@@ -2514,34 +3022,34 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
         <v>153</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>154</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>155</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>156</v>
       </c>
-      <c r="L19" t="s">
-        <v>157</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>152</v>
-      </c>
       <c r="O19" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2555,7 +3063,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
@@ -2571,44 +3079,52 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
         <v>159</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>160</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>161</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>162</v>
       </c>
-      <c r="L20" t="s">
-        <v>163</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+      <c r="O20" t="s">
+        <v>107</v>
+      </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
@@ -2624,46 +3140,44 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
         <v>164</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>165</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>166</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>167</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>168</v>
       </c>
-      <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>169</v>
-      </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2671,7 +3185,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
@@ -2687,44 +3201,44 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
         <v>171</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>172</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>173</v>
       </c>
-      <c r="K22" t="s">
-        <v>174</v>
-      </c>
-      <c r="L22" t="s">
-        <v>175</v>
-      </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
         <v>3</v>
       </c>
-      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2732,7 +3246,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
@@ -2748,46 +3262,44 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
         <v>178</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
-        <v>179</v>
-      </c>
-      <c r="J23" t="s">
-        <v>180</v>
-      </c>
-      <c r="K23" t="s">
-        <v>181</v>
-      </c>
-      <c r="L23" t="s">
-        <v>182</v>
-      </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2795,7 +3307,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
@@ -2811,7 +3323,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2820,39 +3332,45 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
@@ -2868,7 +3386,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2877,35 +3395,37 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J25" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2913,7 +3433,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26">
@@ -2929,7 +3449,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2938,37 +3458,35 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2976,7 +3494,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27">
@@ -2992,7 +3510,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3001,16 +3519,16 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
@@ -3019,16 +3537,16 @@
         <v>200</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
       <c r="Q27" t="n">
         <v>4</v>
       </c>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>4</v>
@@ -3039,7 +3557,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
@@ -3055,7 +3573,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3064,45 +3582,39 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J28" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K28" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29">
@@ -3118,58 +3630,48 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" t="s">
+        <v>212</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>213</v>
       </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
-        <v>214</v>
-      </c>
-      <c r="J29" t="s">
-        <v>215</v>
-      </c>
-      <c r="K29" t="s">
-        <v>216</v>
-      </c>
-      <c r="L29" t="s">
-        <v>217</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>218</v>
-      </c>
       <c r="O29" t="s">
-        <v>83</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30">
@@ -3185,50 +3687,44 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" t="s">
+        <v>219</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
         <v>220</v>
-      </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>221</v>
-      </c>
-      <c r="J30" t="s">
-        <v>222</v>
-      </c>
-      <c r="K30" t="s">
-        <v>223</v>
-      </c>
-      <c r="L30" t="s">
-        <v>224</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="s">
-        <v>225</v>
       </c>
       <c r="O30" t="s">
         <v>52</v>
       </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3236,7 +3732,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31">
@@ -3252,7 +3748,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3261,49 +3757,39 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32">
@@ -3319,7 +3805,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3328,25 +3814,25 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J32" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K32" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3360,7 +3846,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
@@ -3376,7 +3862,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3385,49 +3871,39 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J33" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K33" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L33" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="O33" t="s">
-        <v>83</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34">
@@ -3443,7 +3919,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3452,49 +3928,35 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J34" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K34" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N34" t="s">
-        <v>250</v>
-      </c>
-      <c r="O34" t="s">
-        <v>91</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>4</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35">
@@ -3510,7 +3972,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3519,41 +3981,37 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J35" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K35" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L35" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
         <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3561,7 +4019,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
@@ -3577,7 +4035,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3586,34 +4044,32 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J36" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K36" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L36" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
         <v>3</v>
       </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>4</v>
@@ -3624,7 +4080,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37">
@@ -3640,48 +4096,52 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>258</v>
+      </c>
+      <c r="J37" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" t="s">
+        <v>260</v>
+      </c>
+      <c r="L37" t="s">
+        <v>261</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
         <v>262</v>
       </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" t="s">
-        <v>263</v>
-      </c>
-      <c r="J37" t="s">
-        <v>264</v>
-      </c>
-      <c r="K37" t="s">
-        <v>265</v>
-      </c>
-      <c r="L37" t="s">
-        <v>266</v>
-      </c>
-      <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="s">
-        <v>267</v>
-      </c>
       <c r="O37" t="s">
-        <v>83</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38">
@@ -3697,50 +4157,46 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" t="s">
         <v>268</v>
-      </c>
-      <c r="G38" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" t="s">
-        <v>269</v>
-      </c>
-      <c r="J38" t="s">
-        <v>270</v>
-      </c>
-      <c r="K38" t="s">
-        <v>271</v>
-      </c>
-      <c r="L38" t="s">
-        <v>272</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3748,7 +4204,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39">
@@ -3764,50 +4220,46 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" t="s">
         <v>275</v>
       </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
         <v>276</v>
       </c>
-      <c r="J39" t="s">
-        <v>277</v>
-      </c>
-      <c r="K39" t="s">
-        <v>278</v>
-      </c>
-      <c r="L39" t="s">
-        <v>279</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>280</v>
-      </c>
       <c r="O39" t="s">
-        <v>83</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
         <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3815,7 +4267,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40">
@@ -3831,58 +4283,48 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>278</v>
+      </c>
+      <c r="J40" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
         <v>282</v>
       </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" t="s">
-        <v>283</v>
-      </c>
-      <c r="J40" t="s">
-        <v>284</v>
-      </c>
-      <c r="K40" t="s">
-        <v>285</v>
-      </c>
-      <c r="L40" t="s">
-        <v>286</v>
-      </c>
-      <c r="M40" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" t="s">
-        <v>287</v>
-      </c>
       <c r="O40" t="s">
-        <v>59</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>3</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
@@ -3898,7 +4340,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -3907,41 +4349,35 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J41" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K41" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L41" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3949,7 +4385,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
@@ -3965,7 +4401,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -3974,41 +4410,37 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J42" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K42" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L42" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4016,7 +4448,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43">
@@ -4032,7 +4464,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4041,35 +4473,37 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="J43" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K43" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L43" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>299</v>
+      </c>
+      <c r="O43" t="s">
+        <v>107</v>
+      </c>
       <c r="P43" t="n">
         <v>4</v>
       </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="n">
         <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4077,7 +4511,1888 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>301</v>
+      </c>
+      <c r="J44" t="s">
+        <v>302</v>
+      </c>
+      <c r="K44" t="s">
+        <v>303</v>
+      </c>
+      <c r="L44" t="s">
+        <v>304</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>299</v>
+      </c>
+      <c r="O44" t="s">
+        <v>107</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
         <v>307</v>
+      </c>
+      <c r="J45" t="s">
+        <v>308</v>
+      </c>
+      <c r="K45" t="s">
+        <v>309</v>
+      </c>
+      <c r="L45" t="s">
+        <v>310</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>299</v>
+      </c>
+      <c r="O45" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>311</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>312</v>
+      </c>
+      <c r="J46" t="s">
+        <v>313</v>
+      </c>
+      <c r="K46" t="s">
+        <v>314</v>
+      </c>
+      <c r="L46" t="s">
+        <v>315</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>299</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>317</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>318</v>
+      </c>
+      <c r="J47" t="s">
+        <v>319</v>
+      </c>
+      <c r="K47" t="s">
+        <v>320</v>
+      </c>
+      <c r="L47" t="s">
+        <v>321</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>322</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>323</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>324</v>
+      </c>
+      <c r="J48" t="s">
+        <v>325</v>
+      </c>
+      <c r="K48" t="s">
+        <v>326</v>
+      </c>
+      <c r="L48" t="s">
+        <v>327</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>299</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>328</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>329</v>
+      </c>
+      <c r="J49" t="s">
+        <v>330</v>
+      </c>
+      <c r="K49" t="s">
+        <v>331</v>
+      </c>
+      <c r="L49" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>333</v>
+      </c>
+      <c r="O49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>335</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>336</v>
+      </c>
+      <c r="J50" t="s">
+        <v>337</v>
+      </c>
+      <c r="K50" t="s">
+        <v>338</v>
+      </c>
+      <c r="L50" t="s">
+        <v>339</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>340</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>342</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>343</v>
+      </c>
+      <c r="J51" t="s">
+        <v>344</v>
+      </c>
+      <c r="K51" t="s">
+        <v>345</v>
+      </c>
+      <c r="L51" t="s">
+        <v>346</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>347</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>348</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>349</v>
+      </c>
+      <c r="J52" t="s">
+        <v>350</v>
+      </c>
+      <c r="K52" t="s">
+        <v>351</v>
+      </c>
+      <c r="L52" t="s">
+        <v>352</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>347</v>
+      </c>
+      <c r="O52" t="s">
+        <v>107</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>354</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>355</v>
+      </c>
+      <c r="J53" t="s">
+        <v>356</v>
+      </c>
+      <c r="K53" t="s">
+        <v>357</v>
+      </c>
+      <c r="L53" t="s">
+        <v>358</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>359</v>
+      </c>
+      <c r="O53" t="s">
+        <v>58</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>360</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>361</v>
+      </c>
+      <c r="J54" t="s">
+        <v>362</v>
+      </c>
+      <c r="K54" t="s">
+        <v>363</v>
+      </c>
+      <c r="L54" t="s">
+        <v>364</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>365</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>366</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>367</v>
+      </c>
+      <c r="J55" t="s">
+        <v>368</v>
+      </c>
+      <c r="K55" t="s">
+        <v>369</v>
+      </c>
+      <c r="L55" t="s">
+        <v>370</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>371</v>
+      </c>
+      <c r="O55" t="s">
+        <v>107</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>372</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>373</v>
+      </c>
+      <c r="J56" t="s">
+        <v>374</v>
+      </c>
+      <c r="K56" t="s">
+        <v>375</v>
+      </c>
+      <c r="L56" t="s">
+        <v>376</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>377</v>
+      </c>
+      <c r="O56" t="s">
+        <v>125</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>378</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>379</v>
+      </c>
+      <c r="J57" t="s">
+        <v>380</v>
+      </c>
+      <c r="K57" t="s">
+        <v>381</v>
+      </c>
+      <c r="L57" t="s">
+        <v>382</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>377</v>
+      </c>
+      <c r="O57" t="s">
+        <v>107</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>383</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>384</v>
+      </c>
+      <c r="J58" t="s">
+        <v>385</v>
+      </c>
+      <c r="K58" t="s">
+        <v>386</v>
+      </c>
+      <c r="L58" t="s">
+        <v>387</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>388</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>389</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>390</v>
+      </c>
+      <c r="J59" t="s">
+        <v>391</v>
+      </c>
+      <c r="K59" t="s">
+        <v>392</v>
+      </c>
+      <c r="L59" t="s">
+        <v>393</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>388</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>394</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>395</v>
+      </c>
+      <c r="J60" t="s">
+        <v>396</v>
+      </c>
+      <c r="K60" t="s">
+        <v>397</v>
+      </c>
+      <c r="L60" t="s">
+        <v>398</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>399</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>400</v>
+      </c>
+      <c r="J61" t="s">
+        <v>401</v>
+      </c>
+      <c r="K61" t="s">
+        <v>402</v>
+      </c>
+      <c r="L61" t="s">
+        <v>403</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>404</v>
+      </c>
+      <c r="O61" t="s">
+        <v>107</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>405</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>406</v>
+      </c>
+      <c r="J62" t="s">
+        <v>407</v>
+      </c>
+      <c r="K62" t="s">
+        <v>408</v>
+      </c>
+      <c r="L62" t="s">
+        <v>409</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>410</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>412</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>413</v>
+      </c>
+      <c r="J63" t="s">
+        <v>414</v>
+      </c>
+      <c r="K63" t="s">
+        <v>415</v>
+      </c>
+      <c r="L63" t="s">
+        <v>416</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>417</v>
+      </c>
+      <c r="O63" t="s">
+        <v>125</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>419</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>420</v>
+      </c>
+      <c r="J64" t="s">
+        <v>421</v>
+      </c>
+      <c r="K64" t="s">
+        <v>422</v>
+      </c>
+      <c r="L64" t="s">
+        <v>423</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>424</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>426</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>427</v>
+      </c>
+      <c r="J65" t="s">
+        <v>428</v>
+      </c>
+      <c r="K65" t="s">
+        <v>429</v>
+      </c>
+      <c r="L65" t="s">
+        <v>430</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>431</v>
+      </c>
+      <c r="O65" t="s">
+        <v>107</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>433</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>434</v>
+      </c>
+      <c r="J66" t="s">
+        <v>435</v>
+      </c>
+      <c r="K66" t="s">
+        <v>436</v>
+      </c>
+      <c r="L66" t="s">
+        <v>437</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>438</v>
+      </c>
+      <c r="O66" t="s">
+        <v>58</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>440</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>441</v>
+      </c>
+      <c r="J67" t="s">
+        <v>442</v>
+      </c>
+      <c r="K67" t="s">
+        <v>443</v>
+      </c>
+      <c r="L67" t="s">
+        <v>444</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>445</v>
+      </c>
+      <c r="O67" t="s">
+        <v>446</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>448</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>449</v>
+      </c>
+      <c r="J68" t="s">
+        <v>450</v>
+      </c>
+      <c r="K68" t="s">
+        <v>451</v>
+      </c>
+      <c r="L68" t="s">
+        <v>452</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>453</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>454</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>455</v>
+      </c>
+      <c r="J69" t="s">
+        <v>456</v>
+      </c>
+      <c r="K69" t="s">
+        <v>457</v>
+      </c>
+      <c r="L69" t="s">
+        <v>458</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>453</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>460</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>461</v>
+      </c>
+      <c r="J70" t="s">
+        <v>462</v>
+      </c>
+      <c r="K70" t="s">
+        <v>463</v>
+      </c>
+      <c r="L70" t="s">
+        <v>464</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>465</v>
+      </c>
+      <c r="O70" t="s">
+        <v>58</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>467</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>468</v>
+      </c>
+      <c r="J71" t="s">
+        <v>469</v>
+      </c>
+      <c r="K71" t="s">
+        <v>470</v>
+      </c>
+      <c r="L71" t="s">
+        <v>471</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>41063</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>472</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>473</v>
+      </c>
+      <c r="J72" t="s">
+        <v>474</v>
+      </c>
+      <c r="K72" t="s">
+        <v>475</v>
+      </c>
+      <c r="L72" t="s">
+        <v>476</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
